--- a/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.06268546934276</v>
+        <v>21.06268546934275</v>
       </c>
       <c r="C2">
-        <v>14.66886971043158</v>
+        <v>14.66886971043144</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>21.06498549040348</v>
+        <v>21.06498549040347</v>
       </c>
       <c r="F2">
-        <v>38.27551174015093</v>
+        <v>38.27551174015092</v>
       </c>
       <c r="G2">
-        <v>25.29479237670416</v>
+        <v>25.29479237670419</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.88918878294026</v>
+        <v>10.88918878294028</v>
       </c>
       <c r="J2">
-        <v>18.61437135161945</v>
+        <v>18.61437135161944</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.56808990506455</v>
+        <v>19.5680899050644</v>
       </c>
       <c r="C3">
-        <v>13.68195470705779</v>
+        <v>13.68195470705803</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.63810242789256</v>
+        <v>19.63810242789253</v>
       </c>
       <c r="F3">
-        <v>35.49754348128791</v>
+        <v>35.49754348128786</v>
       </c>
       <c r="G3">
-        <v>24.1636038457402</v>
+        <v>24.16360384574019</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.54341937126218</v>
+        <v>10.54341937126219</v>
       </c>
       <c r="J3">
-        <v>17.34227296225139</v>
+        <v>17.34227296225135</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.60423462347178</v>
+        <v>18.60423462347176</v>
       </c>
       <c r="C4">
-        <v>13.04707290702675</v>
+        <v>13.04707290702657</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.72098912083447</v>
+        <v>18.72098912083448</v>
       </c>
       <c r="F4">
-        <v>33.77496470672134</v>
+        <v>33.77496470672129</v>
       </c>
       <c r="G4">
-        <v>23.48183857084977</v>
+        <v>23.48183857084994</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.34326157552289</v>
+        <v>10.34326157552301</v>
       </c>
       <c r="J4">
-        <v>16.52287553211976</v>
+        <v>16.52287553211967</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.19962598148595</v>
+        <v>18.19962598148594</v>
       </c>
       <c r="C5">
-        <v>12.78095746859199</v>
+        <v>12.78095746859193</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.33675814182739</v>
+        <v>18.33675814182727</v>
       </c>
       <c r="F5">
-        <v>33.0835230458862</v>
+        <v>33.08352304588622</v>
       </c>
       <c r="G5">
-        <v>23.20733321682052</v>
+        <v>23.2073332168206</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.26463943597115</v>
+        <v>10.26463943597121</v>
       </c>
       <c r="J5">
         <v>16.17916060870269</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.13172036855578</v>
+        <v>18.13172036855572</v>
       </c>
       <c r="C6">
-        <v>12.73631919576489</v>
+        <v>12.73631919576516</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18.27231772464705</v>
+        <v>18.27231772464707</v>
       </c>
       <c r="F6">
-        <v>32.96788611259331</v>
+        <v>32.96788611259324</v>
       </c>
       <c r="G6">
-        <v>23.16195611284854</v>
+        <v>23.16195611284842</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.25175889742635</v>
+        <v>10.25175889742634</v>
       </c>
       <c r="J6">
-        <v>16.12149036653103</v>
+        <v>16.12149036653105</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.59882610929575</v>
+        <v>18.5988261092958</v>
       </c>
       <c r="C7">
-        <v>13.0435140796764</v>
+        <v>13.04351407967643</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,19 +614,19 @@
         <v>18.71584999105902</v>
       </c>
       <c r="F7">
-        <v>33.76569500892763</v>
+        <v>33.76569500892765</v>
       </c>
       <c r="G7">
-        <v>23.47812288770412</v>
+        <v>23.47812288770401</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.34218947467541</v>
+        <v>10.34218947467537</v>
       </c>
       <c r="J7">
-        <v>16.51827997484278</v>
+        <v>16.51827997484287</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.55679318413186</v>
+        <v>20.55679318413178</v>
       </c>
       <c r="C8">
-        <v>14.33450026884307</v>
+        <v>14.33450026884317</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.58138254005714</v>
+        <v>20.5813825400572</v>
       </c>
       <c r="F8">
-        <v>37.33184514995865</v>
+        <v>37.33184514995863</v>
       </c>
       <c r="G8">
-        <v>24.90215169300751</v>
+        <v>24.90215169300761</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.76737870666068</v>
+        <v>10.76737870666075</v>
       </c>
       <c r="J8">
-        <v>18.18359924862147</v>
+        <v>18.18359924862142</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.04091413541202</v>
+        <v>24.04091413541198</v>
       </c>
       <c r="C9">
-        <v>16.64346683330594</v>
+        <v>16.6434668333058</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,19 +690,19 @@
         <v>23.92455989085051</v>
       </c>
       <c r="F9">
-        <v>43.89555761990074</v>
+        <v>43.89555761990069</v>
       </c>
       <c r="G9">
-        <v>27.79460564128325</v>
+        <v>27.79460564128316</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.70295820174645</v>
+        <v>11.70295820174644</v>
       </c>
       <c r="J9">
-        <v>21.15383255353544</v>
+        <v>21.15383255353541</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.40083968761159</v>
+        <v>26.40083968761157</v>
       </c>
       <c r="C10">
-        <v>18.21525426701458</v>
+        <v>18.21525426701455</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.20555003778823</v>
+        <v>26.20555003778832</v>
       </c>
       <c r="F10">
-        <v>48.42127816365937</v>
+        <v>48.42127816365934</v>
       </c>
       <c r="G10">
-        <v>29.98437359150187</v>
+        <v>29.98437359150188</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.46124196508989</v>
+        <v>12.4612419650899</v>
       </c>
       <c r="J10">
-        <v>23.16978213309879</v>
+        <v>23.16978213309877</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.43535414178459</v>
+        <v>27.43535414178464</v>
       </c>
       <c r="C11">
-        <v>18.90626271550443</v>
+        <v>18.90626271550433</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.20978129252975</v>
+        <v>27.20978129252968</v>
       </c>
       <c r="F11">
-        <v>50.42417627089401</v>
+        <v>50.42417627089393</v>
       </c>
       <c r="G11">
-        <v>30.99739238403539</v>
+        <v>30.99739238403544</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.82414630392574</v>
+        <v>12.82414630392578</v>
       </c>
       <c r="J11">
-        <v>24.05444486613045</v>
+        <v>24.05444486613041</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.82190309429229</v>
+        <v>27.82190309429228</v>
       </c>
       <c r="C12">
-        <v>19.16477839878166</v>
+        <v>19.1647783987817</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>27.58571498225894</v>
+        <v>27.58571498225889</v>
       </c>
       <c r="F12">
-        <v>51.17546006017242</v>
+        <v>51.17546006017246</v>
       </c>
       <c r="G12">
-        <v>31.38381302256428</v>
+        <v>31.38381302256431</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.73887687708066</v>
+        <v>27.73887687708075</v>
       </c>
       <c r="C13">
-        <v>19.10923743549402</v>
+        <v>19.10923743549417</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>27.50493616561157</v>
+        <v>27.5049361656116</v>
       </c>
       <c r="F13">
-        <v>51.01396106054704</v>
+        <v>51.01396106054703</v>
       </c>
       <c r="G13">
-        <v>31.30045765976035</v>
+        <v>31.3004576597603</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.93408091285238</v>
+        <v>12.93408091285236</v>
       </c>
       <c r="J13">
-        <v>24.3141067251392</v>
+        <v>24.31410672513926</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.46725737833107</v>
+        <v>27.46725737833096</v>
       </c>
       <c r="C14">
-        <v>18.92759229117664</v>
+        <v>18.92759229117677</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>27.2407938123451</v>
+        <v>27.24079381234511</v>
       </c>
       <c r="F14">
-        <v>50.48612301937457</v>
+        <v>50.48612301937448</v>
       </c>
       <c r="G14">
-        <v>31.0291243584437</v>
+        <v>31.02912435844363</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.83562806972177</v>
+        <v>12.83562806972174</v>
       </c>
       <c r="J14">
-        <v>24.08173566083109</v>
+        <v>24.08173566083105</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.30021876888837</v>
+        <v>27.3002187688884</v>
       </c>
       <c r="C15">
-        <v>18.81592829125501</v>
+        <v>18.81592829125496</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>27.07844775269608</v>
+        <v>27.07844775269609</v>
       </c>
       <c r="F15">
-        <v>50.1619015781798</v>
+        <v>50.16190157817979</v>
       </c>
       <c r="G15">
-        <v>30.8633050086018</v>
+        <v>30.86330500860171</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.77570368055761</v>
+        <v>12.77570368055757</v>
       </c>
       <c r="J15">
         <v>23.9388526432485</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.33248038308901</v>
+        <v>26.33248038308895</v>
       </c>
       <c r="C16">
-        <v>18.16963655994201</v>
+        <v>18.169636559942</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>26.13928633208943</v>
+        <v>26.13928633208938</v>
       </c>
       <c r="F16">
-        <v>48.2893300662415</v>
+        <v>48.28933006624153</v>
       </c>
       <c r="G16">
-        <v>29.91853983299659</v>
+        <v>29.91853983299666</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.43790847745339</v>
+        <v>12.43790847745343</v>
       </c>
       <c r="J16">
-        <v>23.11134448936528</v>
+        <v>23.11134448936523</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.72908435253773</v>
+        <v>25.72908435253782</v>
       </c>
       <c r="C17">
-        <v>17.76720634226658</v>
+        <v>17.76720634226643</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.55488773079536</v>
+        <v>25.55488773079538</v>
       </c>
       <c r="F17">
-        <v>47.12682400033395</v>
+        <v>47.12682400033396</v>
       </c>
       <c r="G17">
-        <v>29.34351111264349</v>
+        <v>29.34351111264347</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.23545571359616</v>
+        <v>12.23545571359617</v>
       </c>
       <c r="J17">
-        <v>22.59563240420088</v>
+        <v>22.59563240420092</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.37832563444285</v>
+        <v>25.37832563444293</v>
       </c>
       <c r="C18">
-        <v>17.5334591959111</v>
+        <v>17.53345919591089</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>25.21558172210359</v>
+        <v>25.21558172210356</v>
       </c>
       <c r="F18">
-        <v>46.4528615750669</v>
+        <v>46.45286157506683</v>
       </c>
       <c r="G18">
-        <v>29.01432789900664</v>
+        <v>29.01432789900659</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.12068094687209</v>
+        <v>12.12068094687205</v>
       </c>
       <c r="J18">
-        <v>22.29593437272685</v>
+        <v>22.29593437272688</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.25891740502183</v>
+        <v>25.25891740502195</v>
       </c>
       <c r="C19">
-        <v>17.45391653682351</v>
+        <v>17.45391653682349</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>25.10014045128913</v>
+        <v>25.10014045128908</v>
       </c>
       <c r="F19">
-        <v>46.22373198375103</v>
+        <v>46.22373198375113</v>
       </c>
       <c r="G19">
-        <v>28.90313026640541</v>
+        <v>28.90313026640542</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>12.08209983805853</v>
       </c>
       <c r="J19">
-        <v>22.19392381488459</v>
+        <v>22.19392381488466</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.79369715149377</v>
+        <v>25.79369715149366</v>
       </c>
       <c r="C20">
-        <v>17.81027968406519</v>
+        <v>17.81027968406524</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>25.6174235318983</v>
+        <v>25.61742353189829</v>
       </c>
       <c r="F20">
-        <v>47.2511195561881</v>
+        <v>47.25111955618813</v>
       </c>
       <c r="G20">
-        <v>29.40456030542699</v>
+        <v>29.404560305427</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.25683247319097</v>
+        <v>12.25683247319098</v>
       </c>
       <c r="J20">
-        <v>22.65084658617303</v>
+        <v>22.65084658617296</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.54717612623509</v>
+        <v>27.54717612623504</v>
       </c>
       <c r="C21">
-        <v>18.98102886089169</v>
+        <v>18.98102886089168</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>27.31849277689478</v>
+        <v>27.31849277689479</v>
       </c>
       <c r="F21">
-        <v>50.6413487585328</v>
+        <v>50.64134875853274</v>
       </c>
       <c r="G21">
-        <v>31.10874141324812</v>
+        <v>31.1087414132481</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>12.86446611546396</v>
       </c>
       <c r="J21">
-        <v>24.15010237907582</v>
+        <v>24.15010237907578</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.66310832313079</v>
+        <v>28.66310832313072</v>
       </c>
       <c r="C22">
-        <v>19.72797141244895</v>
+        <v>19.72797141244905</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28.40517343235485</v>
+        <v>28.40517343235479</v>
       </c>
       <c r="F22">
-        <v>52.81578781981692</v>
+        <v>52.81578781981694</v>
       </c>
       <c r="G22">
-        <v>32.27051161020536</v>
+        <v>32.27051161020547</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.27840053761594</v>
+        <v>13.27840053761598</v>
       </c>
       <c r="J22">
-        <v>25.10507232589711</v>
+        <v>25.10507232589707</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.07011279264252</v>
+        <v>28.07011279264261</v>
       </c>
       <c r="C23">
-        <v>19.33086861750562</v>
+        <v>19.33086861750557</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>27.82731334839287</v>
+        <v>27.82731334839291</v>
       </c>
       <c r="F23">
-        <v>51.65869624525741</v>
+        <v>51.65869624525753</v>
       </c>
       <c r="G23">
-        <v>31.63416179699313</v>
+        <v>31.63416179699314</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>13.05583033903672</v>
       </c>
       <c r="J23">
-        <v>24.59753106363961</v>
+        <v>24.5975310636397</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25.58916149379599</v>
+        <v>25.58916149379606</v>
       </c>
       <c r="F24">
-        <v>47.19494311039568</v>
+        <v>47.19494311039576</v>
       </c>
       <c r="G24">
-        <v>29.37695560544323</v>
+        <v>29.37695560544329</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.24716301996528</v>
+        <v>12.24716301996531</v>
       </c>
       <c r="J24">
-        <v>22.62589427364487</v>
+        <v>22.62589427364489</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.13479186725224</v>
+        <v>23.1347918672522</v>
       </c>
       <c r="C25">
-        <v>16.04161966223872</v>
+        <v>16.04161966223878</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.05229386151875</v>
+        <v>23.05229386151877</v>
       </c>
       <c r="F25">
-        <v>42.17444176219762</v>
+        <v>42.17444176219758</v>
       </c>
       <c r="G25">
-        <v>27.00134675295568</v>
+        <v>27.00134675295563</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.43813572527653</v>
+        <v>11.43813572527649</v>
       </c>
       <c r="J25">
-        <v>20.38061761478968</v>
+        <v>20.3806176147897</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.06268546934275</v>
+        <v>21.06268546934276</v>
       </c>
       <c r="C2">
-        <v>14.66886971043144</v>
+        <v>14.66886971043158</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>21.06498549040347</v>
+        <v>21.06498549040348</v>
       </c>
       <c r="F2">
-        <v>38.27551174015092</v>
+        <v>38.27551174015093</v>
       </c>
       <c r="G2">
-        <v>25.29479237670419</v>
+        <v>25.29479237670416</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.88918878294028</v>
+        <v>10.88918878294026</v>
       </c>
       <c r="J2">
-        <v>18.61437135161944</v>
+        <v>18.61437135161945</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.5680899050644</v>
+        <v>19.56808990506455</v>
       </c>
       <c r="C3">
-        <v>13.68195470705803</v>
+        <v>13.68195470705779</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.63810242789253</v>
+        <v>19.63810242789256</v>
       </c>
       <c r="F3">
-        <v>35.49754348128786</v>
+        <v>35.49754348128791</v>
       </c>
       <c r="G3">
-        <v>24.16360384574019</v>
+        <v>24.1636038457402</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.54341937126219</v>
+        <v>10.54341937126218</v>
       </c>
       <c r="J3">
-        <v>17.34227296225135</v>
+        <v>17.34227296225139</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.60423462347176</v>
+        <v>18.60423462347178</v>
       </c>
       <c r="C4">
-        <v>13.04707290702657</v>
+        <v>13.04707290702675</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.72098912083448</v>
+        <v>18.72098912083447</v>
       </c>
       <c r="F4">
-        <v>33.77496470672129</v>
+        <v>33.77496470672134</v>
       </c>
       <c r="G4">
-        <v>23.48183857084994</v>
+        <v>23.48183857084977</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.34326157552301</v>
+        <v>10.34326157552289</v>
       </c>
       <c r="J4">
-        <v>16.52287553211967</v>
+        <v>16.52287553211976</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.19962598148594</v>
+        <v>18.19962598148595</v>
       </c>
       <c r="C5">
-        <v>12.78095746859193</v>
+        <v>12.78095746859199</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.33675814182727</v>
+        <v>18.33675814182739</v>
       </c>
       <c r="F5">
-        <v>33.08352304588622</v>
+        <v>33.0835230458862</v>
       </c>
       <c r="G5">
-        <v>23.2073332168206</v>
+        <v>23.20733321682052</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.26463943597121</v>
+        <v>10.26463943597115</v>
       </c>
       <c r="J5">
         <v>16.17916060870269</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.13172036855572</v>
+        <v>18.13172036855578</v>
       </c>
       <c r="C6">
-        <v>12.73631919576516</v>
+        <v>12.73631919576489</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18.27231772464707</v>
+        <v>18.27231772464705</v>
       </c>
       <c r="F6">
-        <v>32.96788611259324</v>
+        <v>32.96788611259331</v>
       </c>
       <c r="G6">
-        <v>23.16195611284842</v>
+        <v>23.16195611284854</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.25175889742634</v>
+        <v>10.25175889742635</v>
       </c>
       <c r="J6">
-        <v>16.12149036653105</v>
+        <v>16.12149036653103</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.5988261092958</v>
+        <v>18.59882610929575</v>
       </c>
       <c r="C7">
-        <v>13.04351407967643</v>
+        <v>13.0435140796764</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,19 +614,19 @@
         <v>18.71584999105902</v>
       </c>
       <c r="F7">
-        <v>33.76569500892765</v>
+        <v>33.76569500892763</v>
       </c>
       <c r="G7">
-        <v>23.47812288770401</v>
+        <v>23.47812288770412</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.34218947467537</v>
+        <v>10.34218947467541</v>
       </c>
       <c r="J7">
-        <v>16.51827997484287</v>
+        <v>16.51827997484278</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.55679318413178</v>
+        <v>20.55679318413186</v>
       </c>
       <c r="C8">
-        <v>14.33450026884317</v>
+        <v>14.33450026884307</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.5813825400572</v>
+        <v>20.58138254005714</v>
       </c>
       <c r="F8">
-        <v>37.33184514995863</v>
+        <v>37.33184514995865</v>
       </c>
       <c r="G8">
-        <v>24.90215169300761</v>
+        <v>24.90215169300751</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.76737870666075</v>
+        <v>10.76737870666068</v>
       </c>
       <c r="J8">
-        <v>18.18359924862142</v>
+        <v>18.18359924862147</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.04091413541198</v>
+        <v>24.04091413541202</v>
       </c>
       <c r="C9">
-        <v>16.6434668333058</v>
+        <v>16.64346683330594</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,19 +690,19 @@
         <v>23.92455989085051</v>
       </c>
       <c r="F9">
-        <v>43.89555761990069</v>
+        <v>43.89555761990074</v>
       </c>
       <c r="G9">
-        <v>27.79460564128316</v>
+        <v>27.79460564128325</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.70295820174644</v>
+        <v>11.70295820174645</v>
       </c>
       <c r="J9">
-        <v>21.15383255353541</v>
+        <v>21.15383255353544</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.40083968761157</v>
+        <v>26.40083968761159</v>
       </c>
       <c r="C10">
-        <v>18.21525426701455</v>
+        <v>18.21525426701458</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.20555003778832</v>
+        <v>26.20555003778823</v>
       </c>
       <c r="F10">
-        <v>48.42127816365934</v>
+        <v>48.42127816365937</v>
       </c>
       <c r="G10">
-        <v>29.98437359150188</v>
+        <v>29.98437359150187</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.4612419650899</v>
+        <v>12.46124196508989</v>
       </c>
       <c r="J10">
-        <v>23.16978213309877</v>
+        <v>23.16978213309879</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.43535414178464</v>
+        <v>27.43535414178459</v>
       </c>
       <c r="C11">
-        <v>18.90626271550433</v>
+        <v>18.90626271550443</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.20978129252968</v>
+        <v>27.20978129252975</v>
       </c>
       <c r="F11">
-        <v>50.42417627089393</v>
+        <v>50.42417627089401</v>
       </c>
       <c r="G11">
-        <v>30.99739238403544</v>
+        <v>30.99739238403539</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.82414630392578</v>
+        <v>12.82414630392574</v>
       </c>
       <c r="J11">
-        <v>24.05444486613041</v>
+        <v>24.05444486613045</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.82190309429228</v>
+        <v>27.82190309429229</v>
       </c>
       <c r="C12">
-        <v>19.1647783987817</v>
+        <v>19.16477839878166</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>27.58571498225889</v>
+        <v>27.58571498225894</v>
       </c>
       <c r="F12">
-        <v>51.17546006017246</v>
+        <v>51.17546006017242</v>
       </c>
       <c r="G12">
-        <v>31.38381302256431</v>
+        <v>31.38381302256428</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.73887687708075</v>
+        <v>27.73887687708066</v>
       </c>
       <c r="C13">
-        <v>19.10923743549417</v>
+        <v>19.10923743549402</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>27.5049361656116</v>
+        <v>27.50493616561157</v>
       </c>
       <c r="F13">
-        <v>51.01396106054703</v>
+        <v>51.01396106054704</v>
       </c>
       <c r="G13">
-        <v>31.3004576597603</v>
+        <v>31.30045765976035</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.93408091285236</v>
+        <v>12.93408091285238</v>
       </c>
       <c r="J13">
-        <v>24.31410672513926</v>
+        <v>24.3141067251392</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.46725737833096</v>
+        <v>27.46725737833107</v>
       </c>
       <c r="C14">
-        <v>18.92759229117677</v>
+        <v>18.92759229117664</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>27.24079381234511</v>
+        <v>27.2407938123451</v>
       </c>
       <c r="F14">
-        <v>50.48612301937448</v>
+        <v>50.48612301937457</v>
       </c>
       <c r="G14">
-        <v>31.02912435844363</v>
+        <v>31.0291243584437</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.83562806972174</v>
+        <v>12.83562806972177</v>
       </c>
       <c r="J14">
-        <v>24.08173566083105</v>
+        <v>24.08173566083109</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.3002187688884</v>
+        <v>27.30021876888837</v>
       </c>
       <c r="C15">
-        <v>18.81592829125496</v>
+        <v>18.81592829125501</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>27.07844775269609</v>
+        <v>27.07844775269608</v>
       </c>
       <c r="F15">
-        <v>50.16190157817979</v>
+        <v>50.1619015781798</v>
       </c>
       <c r="G15">
-        <v>30.86330500860171</v>
+        <v>30.8633050086018</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.77570368055757</v>
+        <v>12.77570368055761</v>
       </c>
       <c r="J15">
         <v>23.9388526432485</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.33248038308895</v>
+        <v>26.33248038308901</v>
       </c>
       <c r="C16">
-        <v>18.169636559942</v>
+        <v>18.16963655994201</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>26.13928633208938</v>
+        <v>26.13928633208943</v>
       </c>
       <c r="F16">
-        <v>48.28933006624153</v>
+        <v>48.2893300662415</v>
       </c>
       <c r="G16">
-        <v>29.91853983299666</v>
+        <v>29.91853983299659</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.43790847745343</v>
+        <v>12.43790847745339</v>
       </c>
       <c r="J16">
-        <v>23.11134448936523</v>
+        <v>23.11134448936528</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.72908435253782</v>
+        <v>25.72908435253773</v>
       </c>
       <c r="C17">
-        <v>17.76720634226643</v>
+        <v>17.76720634226658</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.55488773079538</v>
+        <v>25.55488773079536</v>
       </c>
       <c r="F17">
-        <v>47.12682400033396</v>
+        <v>47.12682400033395</v>
       </c>
       <c r="G17">
-        <v>29.34351111264347</v>
+        <v>29.34351111264349</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.23545571359617</v>
+        <v>12.23545571359616</v>
       </c>
       <c r="J17">
-        <v>22.59563240420092</v>
+        <v>22.59563240420088</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.37832563444293</v>
+        <v>25.37832563444285</v>
       </c>
       <c r="C18">
-        <v>17.53345919591089</v>
+        <v>17.5334591959111</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>25.21558172210356</v>
+        <v>25.21558172210359</v>
       </c>
       <c r="F18">
-        <v>46.45286157506683</v>
+        <v>46.4528615750669</v>
       </c>
       <c r="G18">
-        <v>29.01432789900659</v>
+        <v>29.01432789900664</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.12068094687205</v>
+        <v>12.12068094687209</v>
       </c>
       <c r="J18">
-        <v>22.29593437272688</v>
+        <v>22.29593437272685</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.25891740502195</v>
+        <v>25.25891740502183</v>
       </c>
       <c r="C19">
-        <v>17.45391653682349</v>
+        <v>17.45391653682351</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>25.10014045128908</v>
+        <v>25.10014045128913</v>
       </c>
       <c r="F19">
-        <v>46.22373198375113</v>
+        <v>46.22373198375103</v>
       </c>
       <c r="G19">
-        <v>28.90313026640542</v>
+        <v>28.90313026640541</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>12.08209983805853</v>
       </c>
       <c r="J19">
-        <v>22.19392381488466</v>
+        <v>22.19392381488459</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.79369715149366</v>
+        <v>25.79369715149377</v>
       </c>
       <c r="C20">
-        <v>17.81027968406524</v>
+        <v>17.81027968406519</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>25.61742353189829</v>
+        <v>25.6174235318983</v>
       </c>
       <c r="F20">
-        <v>47.25111955618813</v>
+        <v>47.2511195561881</v>
       </c>
       <c r="G20">
-        <v>29.404560305427</v>
+        <v>29.40456030542699</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.25683247319098</v>
+        <v>12.25683247319097</v>
       </c>
       <c r="J20">
-        <v>22.65084658617296</v>
+        <v>22.65084658617303</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.54717612623504</v>
+        <v>27.54717612623509</v>
       </c>
       <c r="C21">
-        <v>18.98102886089168</v>
+        <v>18.98102886089169</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>27.31849277689479</v>
+        <v>27.31849277689478</v>
       </c>
       <c r="F21">
-        <v>50.64134875853274</v>
+        <v>50.6413487585328</v>
       </c>
       <c r="G21">
-        <v>31.1087414132481</v>
+        <v>31.10874141324812</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>12.86446611546396</v>
       </c>
       <c r="J21">
-        <v>24.15010237907578</v>
+        <v>24.15010237907582</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.66310832313072</v>
+        <v>28.66310832313079</v>
       </c>
       <c r="C22">
-        <v>19.72797141244905</v>
+        <v>19.72797141244895</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28.40517343235479</v>
+        <v>28.40517343235485</v>
       </c>
       <c r="F22">
-        <v>52.81578781981694</v>
+        <v>52.81578781981692</v>
       </c>
       <c r="G22">
-        <v>32.27051161020547</v>
+        <v>32.27051161020536</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.27840053761598</v>
+        <v>13.27840053761594</v>
       </c>
       <c r="J22">
-        <v>25.10507232589707</v>
+        <v>25.10507232589711</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.07011279264261</v>
+        <v>28.07011279264252</v>
       </c>
       <c r="C23">
-        <v>19.33086861750557</v>
+        <v>19.33086861750562</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>27.82731334839291</v>
+        <v>27.82731334839287</v>
       </c>
       <c r="F23">
-        <v>51.65869624525753</v>
+        <v>51.65869624525741</v>
       </c>
       <c r="G23">
-        <v>31.63416179699314</v>
+        <v>31.63416179699313</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>13.05583033903672</v>
       </c>
       <c r="J23">
-        <v>24.5975310636397</v>
+        <v>24.59753106363961</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25.58916149379606</v>
+        <v>25.58916149379599</v>
       </c>
       <c r="F24">
-        <v>47.19494311039576</v>
+        <v>47.19494311039568</v>
       </c>
       <c r="G24">
-        <v>29.37695560544329</v>
+        <v>29.37695560544323</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.24716301996531</v>
+        <v>12.24716301996528</v>
       </c>
       <c r="J24">
-        <v>22.62589427364489</v>
+        <v>22.62589427364487</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.1347918672522</v>
+        <v>23.13479186725224</v>
       </c>
       <c r="C25">
-        <v>16.04161966223878</v>
+        <v>16.04161966223872</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.05229386151877</v>
+        <v>23.05229386151875</v>
       </c>
       <c r="F25">
-        <v>42.17444176219758</v>
+        <v>42.17444176219762</v>
       </c>
       <c r="G25">
-        <v>27.00134675295563</v>
+        <v>27.00134675295568</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.43813572527649</v>
+        <v>11.43813572527653</v>
       </c>
       <c r="J25">
-        <v>20.3806176147897</v>
+        <v>20.38061761478968</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.06268546934276</v>
+        <v>21.06208529631204</v>
       </c>
       <c r="C2">
-        <v>14.66886971043158</v>
+        <v>14.66813680862985</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>21.06498549040348</v>
+        <v>21.07956195191144</v>
       </c>
       <c r="F2">
-        <v>38.27551174015093</v>
+        <v>38.2577127695984</v>
       </c>
       <c r="G2">
-        <v>25.29479237670416</v>
+        <v>24.21091025085213</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>25.31178937544049</v>
       </c>
       <c r="I2">
-        <v>10.88918878294026</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>18.61437135161945</v>
+        <v>10.87329259546196</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.6136811520975</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.56808990506455</v>
+        <v>19.56774371937707</v>
       </c>
       <c r="C3">
-        <v>13.68195470705779</v>
+        <v>13.68151702035694</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.63810242789256</v>
+        <v>19.65167252440974</v>
       </c>
       <c r="F3">
-        <v>35.49754348128791</v>
+        <v>35.48088717882159</v>
       </c>
       <c r="G3">
-        <v>24.1636038457402</v>
+        <v>22.82377598094839</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>24.18071278889565</v>
       </c>
       <c r="I3">
-        <v>10.54341937126218</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>17.34227296225139</v>
+        <v>10.52882487744601</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.34186439436591</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.60423462347178</v>
+        <v>18.60403711291871</v>
       </c>
       <c r="C4">
-        <v>13.04707290702675</v>
+        <v>13.04681696425769</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.72098912083447</v>
+        <v>18.73389561954809</v>
       </c>
       <c r="F4">
-        <v>33.77496470672134</v>
+        <v>33.75899716968227</v>
       </c>
       <c r="G4">
-        <v>23.48183857084977</v>
+        <v>21.96993222392626</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>23.4991417630516</v>
       </c>
       <c r="I4">
-        <v>10.34326157552289</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>16.52287553211976</v>
+        <v>10.32949710988294</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.52263804696031</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.19962598148595</v>
+        <v>18.19948754528496</v>
       </c>
       <c r="C5">
-        <v>12.78095746859199</v>
+        <v>12.78077610741065</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.33675814182739</v>
+        <v>18.34938264614387</v>
       </c>
       <c r="F5">
-        <v>33.0835230458862</v>
+        <v>33.06785737754209</v>
       </c>
       <c r="G5">
-        <v>23.20733321682052</v>
+        <v>21.6216498829845</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>23.22474703414459</v>
       </c>
       <c r="I5">
-        <v>10.26463943597115</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>16.17916060870269</v>
+        <v>10.25122034496688</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.1789927630404</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.13172036855578</v>
+        <v>18.13159165887063</v>
       </c>
       <c r="C6">
-        <v>12.73631919576489</v>
+        <v>12.73615026175433</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18.27231772464705</v>
+        <v>18.28489470156328</v>
       </c>
       <c r="F6">
-        <v>32.96788611259331</v>
+        <v>32.9522709516398</v>
       </c>
       <c r="G6">
-        <v>23.16195611284854</v>
+        <v>21.56380540504919</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>23.17939019240838</v>
       </c>
       <c r="I6">
-        <v>10.25175889742635</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>16.12149036653103</v>
+        <v>10.23839756631554</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.12133409076194</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.59882610929575</v>
+        <v>18.59862940116952</v>
       </c>
       <c r="C7">
-        <v>13.0435140796764</v>
+        <v>13.04325914011421</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18.71584999105902</v>
+        <v>18.7287527337056</v>
       </c>
       <c r="F7">
-        <v>33.76569500892763</v>
+        <v>33.74973151767023</v>
       </c>
       <c r="G7">
-        <v>23.47812288770412</v>
+        <v>21.96523618310874</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>23.49542744472672</v>
       </c>
       <c r="I7">
-        <v>10.34218947467541</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>16.51827997484278</v>
+        <v>10.32842963889361</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.51804342868308</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.55679318413186</v>
+        <v>20.5562822988529</v>
       </c>
       <c r="C8">
-        <v>14.33450026884307</v>
+        <v>14.33386930006801</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.58138254005714</v>
+        <v>20.59562145374785</v>
       </c>
       <c r="F8">
-        <v>37.33184514995865</v>
+        <v>37.31443642513913</v>
       </c>
       <c r="G8">
-        <v>24.90215169300751</v>
+        <v>23.73316255368008</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>24.9191612523851</v>
       </c>
       <c r="I8">
-        <v>10.76737870666068</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>18.18359924862147</v>
+        <v>10.75192462709293</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.18300677423338</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.04091413541202</v>
+        <v>24.03971276706858</v>
       </c>
       <c r="C9">
-        <v>16.64346683330594</v>
+        <v>16.64208357099415</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.92455989085051</v>
+        <v>23.94105753367074</v>
       </c>
       <c r="F9">
-        <v>43.89555761990074</v>
+        <v>43.87538097887941</v>
       </c>
       <c r="G9">
-        <v>27.79460564128325</v>
+        <v>27.17946653965633</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>27.81202650563259</v>
       </c>
       <c r="I9">
-        <v>11.70295820174645</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>21.15383255353544</v>
+        <v>11.68444559884787</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.15250899673823</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.40083968761159</v>
+        <v>26.39905776270994</v>
       </c>
       <c r="C10">
-        <v>18.21525426701458</v>
+        <v>18.21328061543675</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.20555003778823</v>
+        <v>26.22348367776763</v>
       </c>
       <c r="F10">
-        <v>48.42127816365937</v>
+        <v>48.39910308349577</v>
       </c>
       <c r="G10">
-        <v>29.98437359150187</v>
+        <v>29.70240016192668</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>30.00268174524476</v>
       </c>
       <c r="I10">
-        <v>12.46124196508989</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>23.16978213309879</v>
+        <v>12.44065708874118</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.16787233527452</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.43535414178459</v>
+        <v>27.43328421075475</v>
       </c>
       <c r="C11">
-        <v>18.90626271550443</v>
+        <v>18.90400476206609</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.20978129252975</v>
+        <v>27.22831747227812</v>
       </c>
       <c r="F11">
-        <v>50.42417627089401</v>
+        <v>50.40108664753459</v>
       </c>
       <c r="G11">
-        <v>30.99739238403539</v>
+        <v>30.8514579712724</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>31.01622542580223</v>
       </c>
       <c r="I11">
-        <v>12.82414630392574</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>24.05444486613045</v>
+        <v>12.80265557887959</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>24.05224990464791</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.82190309429229</v>
+        <v>27.81971981552476</v>
       </c>
       <c r="C12">
-        <v>19.16477839878166</v>
+        <v>19.16240975648111</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>27.58571498225894</v>
+        <v>27.6044717177054</v>
       </c>
       <c r="F12">
-        <v>51.17546006017242</v>
+        <v>51.15202192149745</v>
       </c>
       <c r="G12">
-        <v>31.38381302256428</v>
+        <v>31.29010977446437</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>31.40286170388055</v>
       </c>
       <c r="I12">
-        <v>12.96442422543129</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>24.38514340206128</v>
+        <v>12.94259538164716</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>24.38283699274185</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.73887687708066</v>
+        <v>27.73671821592936</v>
       </c>
       <c r="C13">
-        <v>19.10923743549402</v>
+        <v>19.10689278062882</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>27.50493616561157</v>
+        <v>27.52364574558568</v>
       </c>
       <c r="F13">
-        <v>51.01396106054704</v>
+        <v>50.99059810482313</v>
       </c>
       <c r="G13">
-        <v>31.30045765976035</v>
+        <v>31.19333699768466</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>31.31945915807972</v>
       </c>
       <c r="I13">
-        <v>12.93408091285238</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>24.3141067251392</v>
+        <v>12.91232467977701</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>24.31182448670048</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.46725737833107</v>
+        <v>27.46517821353915</v>
       </c>
       <c r="C14">
-        <v>18.92759229117664</v>
+        <v>18.92532529695695</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>27.2407938123451</v>
+        <v>27.25934829223381</v>
       </c>
       <c r="F14">
-        <v>50.48612301937457</v>
+        <v>50.46300477681</v>
       </c>
       <c r="G14">
-        <v>31.0291243584437</v>
+        <v>30.88729273618083</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>31.0479748061482</v>
       </c>
       <c r="I14">
-        <v>12.83562806972177</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>24.08173566083109</v>
+        <v>12.81410943227252</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>24.07953160505992</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.30021876888837</v>
+        <v>27.29818771140496</v>
       </c>
       <c r="C15">
-        <v>18.81592829125501</v>
+        <v>18.8137084465145</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>27.07844775269608</v>
+        <v>27.0969062260837</v>
       </c>
       <c r="F15">
-        <v>50.1619015781798</v>
+        <v>50.13893289556069</v>
       </c>
       <c r="G15">
-        <v>30.8633050086018</v>
+        <v>30.69993150392428</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>30.88206511384449</v>
       </c>
       <c r="I15">
-        <v>12.77570368055761</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>23.9388526432485</v>
+        <v>12.7543312002555</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>23.93669599902394</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.33248038308901</v>
+        <v>26.33071673054484</v>
       </c>
       <c r="C16">
-        <v>18.16963655994201</v>
+        <v>18.16768110922791</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>26.13928633208943</v>
+        <v>26.15717954973424</v>
       </c>
       <c r="F16">
-        <v>48.2893300662415</v>
+        <v>48.2672145305207</v>
       </c>
       <c r="G16">
-        <v>29.91853983299659</v>
+        <v>29.62736870637469</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>29.93681607704902</v>
       </c>
       <c r="I16">
-        <v>12.43790847745339</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>23.11134448936528</v>
+        <v>12.4173835141006</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>23.10945289052556</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.72908435253773</v>
+        <v>25.7274780721545</v>
       </c>
       <c r="C17">
-        <v>17.76720634226658</v>
+        <v>17.76540855694801</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.55488773079536</v>
+        <v>25.57242100546343</v>
       </c>
       <c r="F17">
-        <v>47.12682400033395</v>
+        <v>47.10522954091041</v>
       </c>
       <c r="G17">
-        <v>29.34351111264349</v>
+        <v>28.97000578083193</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>29.36152119412707</v>
       </c>
       <c r="I17">
-        <v>12.23545571359616</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>22.59563240420088</v>
+        <v>12.21545991055846</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>22.59389814388317</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.37832563444285</v>
+        <v>25.37680768015581</v>
       </c>
       <c r="C18">
-        <v>17.5334591959111</v>
+        <v>17.53175066818519</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>25.21558172210359</v>
+        <v>25.23290322059866</v>
       </c>
       <c r="F18">
-        <v>46.4528615750669</v>
+        <v>46.43156641422859</v>
       </c>
       <c r="G18">
-        <v>29.01432789900664</v>
+        <v>28.59200062959407</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>29.03219634016342</v>
       </c>
       <c r="I18">
-        <v>12.12068094687209</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>22.29593437272685</v>
+        <v>12.10099300835702</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.29428892623368</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.25891740502183</v>
+        <v>25.25742900325182</v>
       </c>
       <c r="C19">
-        <v>17.45391653682351</v>
+        <v>17.45223800615402</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>25.10014045128913</v>
+        <v>25.11738943861683</v>
       </c>
       <c r="F19">
-        <v>46.22373198375103</v>
+        <v>46.20253812766863</v>
       </c>
       <c r="G19">
-        <v>28.90313026640541</v>
+        <v>28.46401932852822</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>28.92095273351676</v>
       </c>
       <c r="I19">
-        <v>12.08209983805853</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>22.19392381488459</v>
+        <v>12.06251674706929</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.19230817219054</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.79369715149377</v>
+        <v>25.79207435082721</v>
       </c>
       <c r="C20">
-        <v>17.81027968406519</v>
+        <v>17.80846526783026</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>25.6174235318983</v>
+        <v>25.63499561628803</v>
       </c>
       <c r="F20">
-        <v>47.2511195561881</v>
+        <v>47.22946967902799</v>
       </c>
       <c r="G20">
-        <v>29.40456030542699</v>
+        <v>29.039970847054</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>29.42259753934196</v>
       </c>
       <c r="I20">
-        <v>12.25683247319097</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>22.65084658617303</v>
+        <v>12.23677997935413</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>22.64909575643291</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.54717612623509</v>
+        <v>27.54507373544827</v>
       </c>
       <c r="C21">
-        <v>18.98102886089169</v>
+        <v>18.97873914495504</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>27.31849277689478</v>
+        <v>27.33709302327393</v>
       </c>
       <c r="F21">
-        <v>50.6413487585328</v>
+        <v>50.6181587103906</v>
       </c>
       <c r="G21">
-        <v>31.10874141324812</v>
+        <v>30.97716355224049</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>31.12763577484434</v>
       </c>
       <c r="I21">
-        <v>12.86446611546396</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>24.15010237907582</v>
+        <v>12.84287756166239</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>24.14787546036593</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.66310832313079</v>
+        <v>28.66066697112809</v>
       </c>
       <c r="C22">
-        <v>19.72797141244895</v>
+        <v>19.7253529263254</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28.40517343235485</v>
+        <v>28.42440101564354</v>
       </c>
       <c r="F22">
-        <v>52.81578781981692</v>
+        <v>52.79157745063675</v>
       </c>
       <c r="G22">
-        <v>32.27051161020536</v>
+        <v>32.29176204794663</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>32.25875487229938</v>
       </c>
       <c r="I22">
-        <v>13.27840053761594</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>25.10507232589711</v>
+        <v>13.2558363042418</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.1025135714709</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.07011279264252</v>
+        <v>28.06785501751572</v>
       </c>
       <c r="C23">
-        <v>19.33086861750562</v>
+        <v>19.32842755667771</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>27.82731334839287</v>
+        <v>27.84621033612517</v>
       </c>
       <c r="F23">
-        <v>51.65869624525741</v>
+        <v>51.63503225792007</v>
       </c>
       <c r="G23">
-        <v>31.63416179699313</v>
+        <v>31.5841901439968</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>31.65335431390279</v>
       </c>
       <c r="I23">
-        <v>13.05583033903672</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>24.59753106363961</v>
+        <v>13.03378446022315</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24.59515162007832</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.76449775316941</v>
+        <v>25.76288242795584</v>
       </c>
       <c r="C24">
-        <v>17.79081367566677</v>
+        <v>17.78900678253139</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25.58916149379599</v>
+        <v>25.60671604736741</v>
       </c>
       <c r="F24">
-        <v>47.19494311039568</v>
+        <v>47.17331828834693</v>
       </c>
       <c r="G24">
-        <v>29.37695560544323</v>
+        <v>29.00833991661599</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>29.394980528272</v>
       </c>
       <c r="I24">
-        <v>12.24716301996528</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>22.62589427364487</v>
+        <v>12.22713614466218</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>22.62415093999713</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.13479186725224</v>
+        <v>23.13378783901245</v>
       </c>
       <c r="C25">
-        <v>16.04161966223872</v>
+        <v>16.04044426836362</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.05229386151875</v>
+        <v>23.06821923776454</v>
       </c>
       <c r="F25">
-        <v>42.17444176219762</v>
+        <v>42.15500402766304</v>
       </c>
       <c r="G25">
-        <v>27.00134675295568</v>
+        <v>26.24942329998642</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>27.01855183864896</v>
       </c>
       <c r="I25">
-        <v>11.43813572527653</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>20.38061761478968</v>
+        <v>11.42042016326925</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.37949813998299</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.06208529631204</v>
+        <v>21.89194046032544</v>
       </c>
       <c r="C2">
-        <v>14.66813680862985</v>
+        <v>16.39226763957933</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>21.07956195191144</v>
+        <v>9.180440571991248</v>
       </c>
       <c r="F2">
-        <v>38.2577127695984</v>
+        <v>66.00935692554044</v>
       </c>
       <c r="G2">
-        <v>24.21091025085213</v>
+        <v>2.135666073669049</v>
       </c>
       <c r="H2">
-        <v>25.31178937544049</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.87329259546196</v>
+        <v>11.52605512239177</v>
       </c>
       <c r="K2">
-        <v>18.6136811520975</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3.819343512004156</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>10.33557318442518</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.56774371937707</v>
+        <v>20.62737099329366</v>
       </c>
       <c r="C3">
-        <v>13.68151702035694</v>
+        <v>15.15836785824613</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.65167252440974</v>
+        <v>8.628077213248808</v>
       </c>
       <c r="F3">
-        <v>35.48088717882159</v>
+        <v>62.71284396740149</v>
       </c>
       <c r="G3">
-        <v>22.82377598094839</v>
+        <v>2.151398744347865</v>
       </c>
       <c r="H3">
-        <v>24.18071278889565</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.52882487744601</v>
+        <v>11.1669747515069</v>
       </c>
       <c r="K3">
-        <v>17.34186439436591</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>3.940808403489392</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>10.17080536190679</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.60403711291871</v>
+        <v>19.84501427477108</v>
       </c>
       <c r="C4">
-        <v>13.04681696425769</v>
+        <v>14.3690533444546</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.73389561954809</v>
+        <v>8.278398848039183</v>
       </c>
       <c r="F4">
-        <v>33.75899716968227</v>
+        <v>60.65495192935618</v>
       </c>
       <c r="G4">
-        <v>21.96993222392626</v>
+        <v>2.161192697584697</v>
       </c>
       <c r="H4">
-        <v>23.4991417630516</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.32949710988294</v>
+        <v>10.9458944955</v>
       </c>
       <c r="K4">
-        <v>16.52263804696031</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4.01876436899975</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>10.08498855456442</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.19948754528496</v>
+        <v>19.52492048855251</v>
       </c>
       <c r="C5">
-        <v>12.78077610741065</v>
+        <v>14.039153445705</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.34938264614387</v>
+        <v>8.133226171313835</v>
       </c>
       <c r="F5">
-        <v>33.06785737754209</v>
+        <v>59.8080533051322</v>
       </c>
       <c r="G5">
-        <v>21.6216498829845</v>
+        <v>2.165223833001301</v>
       </c>
       <c r="H5">
-        <v>23.22474703414459</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.25122034496688</v>
+        <v>10.85561425595171</v>
       </c>
       <c r="K5">
-        <v>16.1789927630404</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>4.051359918821524</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10.0537285145971</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.13159165887063</v>
+        <v>19.47170018738749</v>
       </c>
       <c r="C6">
-        <v>12.73615026175433</v>
+        <v>13.98386814770497</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18.28489470156328</v>
+        <v>8.108958446171242</v>
       </c>
       <c r="F6">
-        <v>32.9522709516398</v>
+        <v>59.66693560432961</v>
       </c>
       <c r="G6">
-        <v>21.56380540504919</v>
+        <v>2.165895789002811</v>
       </c>
       <c r="H6">
-        <v>23.17939019240838</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.23839756631554</v>
+        <v>10.84061110162624</v>
       </c>
       <c r="K6">
-        <v>16.12133409076194</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.056821901668481</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10.04875758764884</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.59862940116952</v>
+        <v>19.84070219519661</v>
       </c>
       <c r="C7">
-        <v>13.04325914011421</v>
+        <v>14.36463793871039</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18.7287527337056</v>
+        <v>8.276451850779466</v>
       </c>
       <c r="F7">
-        <v>33.74973151767023</v>
+        <v>60.64356350655263</v>
       </c>
       <c r="G7">
-        <v>21.96523618310874</v>
+        <v>2.16124689298701</v>
       </c>
       <c r="H7">
-        <v>23.49542744472672</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.32842963889361</v>
+        <v>10.9446777455618</v>
       </c>
       <c r="K7">
-        <v>16.51804342868308</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>4.019200634714017</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10.08455214172647</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.5562822988529</v>
+        <v>21.45723318619378</v>
       </c>
       <c r="C8">
-        <v>14.33386930006801</v>
+        <v>15.97321960542893</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.59562145374785</v>
+        <v>8.992143291576498</v>
       </c>
       <c r="F8">
-        <v>37.31443642513913</v>
+        <v>64.87980497765322</v>
       </c>
       <c r="G8">
-        <v>23.73316255368008</v>
+        <v>2.14106690872836</v>
       </c>
       <c r="H8">
-        <v>24.9191612523851</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.75192462709293</v>
+        <v>11.40234305245661</v>
       </c>
       <c r="K8">
-        <v>18.18300677423338</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>3.860508840175056</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>10.27548475214552</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.03971276706858</v>
+        <v>24.60448623898244</v>
       </c>
       <c r="C9">
-        <v>16.64208357099415</v>
+        <v>18.89063724430211</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.94105753367074</v>
+        <v>10.31506797948277</v>
       </c>
       <c r="F9">
-        <v>43.87538097887941</v>
+        <v>72.9205143489352</v>
       </c>
       <c r="G9">
-        <v>27.17946653965633</v>
+        <v>2.10222970390254</v>
       </c>
       <c r="H9">
-        <v>27.81202650563259</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.68444559884787</v>
+        <v>12.29755795526969</v>
       </c>
       <c r="K9">
-        <v>21.15250899673823</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3.577539027664481</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>10.77863167273607</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.39905776270994</v>
+        <v>27.15268255946161</v>
       </c>
       <c r="C10">
-        <v>18.21328061543675</v>
+        <v>20.91337888571655</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.22348367776763</v>
+        <v>11.24461101593326</v>
       </c>
       <c r="F10">
-        <v>48.39910308349577</v>
+        <v>78.6861107374945</v>
       </c>
       <c r="G10">
-        <v>29.70240016192668</v>
+        <v>2.073605497251838</v>
       </c>
       <c r="H10">
-        <v>30.00268174524476</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.44065708874118</v>
+        <v>12.95903847197053</v>
       </c>
       <c r="K10">
-        <v>23.16787233527452</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3.419206525093104</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>11.93755594363492</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.43328421075475</v>
+        <v>28.2954990539724</v>
       </c>
       <c r="C11">
-        <v>18.90400476206609</v>
+        <v>21.81397852556208</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.22831747227812</v>
+        <v>11.66056553343485</v>
       </c>
       <c r="F11">
-        <v>50.40108664753459</v>
+        <v>81.28837507145961</v>
       </c>
       <c r="G11">
-        <v>30.8514579712724</v>
+        <v>2.060413759061654</v>
       </c>
       <c r="H11">
-        <v>31.01622542580223</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.80265557887959</v>
+        <v>13.26249620559052</v>
       </c>
       <c r="K11">
-        <v>24.05224990464791</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>3.528160104169864</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>12.46402239400934</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.81971981552476</v>
+        <v>28.72663143406491</v>
       </c>
       <c r="C12">
-        <v>19.16240975648111</v>
+        <v>22.15288362002117</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>27.6044717177054</v>
+        <v>11.81734329535688</v>
       </c>
       <c r="F12">
-        <v>51.15202192149745</v>
+        <v>82.27212132007494</v>
       </c>
       <c r="G12">
-        <v>31.29010977446437</v>
+        <v>2.055378276197023</v>
       </c>
       <c r="H12">
-        <v>31.40286170388055</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.94259538164716</v>
+        <v>13.37796931618988</v>
       </c>
       <c r="K12">
-        <v>24.38283699274185</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>3.569618194079934</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>12.6622740362808</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.73671821592936</v>
+        <v>28.63383806514784</v>
       </c>
       <c r="C13">
-        <v>19.10689278062882</v>
+        <v>22.07997687738026</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>27.52364574558568</v>
+        <v>11.78360629807853</v>
       </c>
       <c r="F13">
-        <v>50.99059810482313</v>
+        <v>82.06030365021947</v>
       </c>
       <c r="G13">
-        <v>31.19333699768466</v>
+        <v>2.056464821050835</v>
       </c>
       <c r="H13">
-        <v>31.31945915807972</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.91232467977701</v>
+        <v>13.35307154423139</v>
       </c>
       <c r="K13">
-        <v>24.31182448670048</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>3.560678573396493</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>12.61961902638846</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.46517821353915</v>
+        <v>28.33099633163549</v>
       </c>
       <c r="C14">
-        <v>18.92532529695695</v>
+        <v>21.84189880611435</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>27.25934829223381</v>
+        <v>11.67347676305639</v>
       </c>
       <c r="F14">
-        <v>50.46300477681</v>
+        <v>81.36933323986455</v>
       </c>
       <c r="G14">
-        <v>30.88729273618083</v>
+        <v>2.060000390067708</v>
       </c>
       <c r="H14">
-        <v>31.0479748061482</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.81410943227252</v>
+        <v>13.27198372181501</v>
       </c>
       <c r="K14">
-        <v>24.07953160505992</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3.531566172217556</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12.48035230716446</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.29818771140496</v>
+        <v>28.14530996266515</v>
       </c>
       <c r="C15">
-        <v>18.8137084465145</v>
+        <v>21.6958138987826</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>27.0969062260837</v>
+        <v>11.60593223515332</v>
       </c>
       <c r="F15">
-        <v>50.13893289556069</v>
+        <v>80.94592073568995</v>
       </c>
       <c r="G15">
-        <v>30.69993150392428</v>
+        <v>2.06216029629343</v>
       </c>
       <c r="H15">
-        <v>30.88206511384449</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.7543312002555</v>
+        <v>13.22239469353032</v>
       </c>
       <c r="K15">
-        <v>23.93669599902394</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>3.51376364686349</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>12.39491629269219</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.33071673054484</v>
+        <v>27.07772521610972</v>
       </c>
       <c r="C16">
-        <v>18.16768110922791</v>
+        <v>20.85418418047729</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>26.15717954973424</v>
+        <v>11.21730910437285</v>
       </c>
       <c r="F16">
-        <v>48.2672145305207</v>
+        <v>78.51573359553761</v>
       </c>
       <c r="G16">
-        <v>29.62736870637469</v>
+        <v>2.074462918613968</v>
       </c>
       <c r="H16">
-        <v>29.93681607704902</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.4173835141006</v>
+        <v>12.93927348768259</v>
       </c>
       <c r="K16">
-        <v>23.10945289052556</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3.412107607781336</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>11.90297099225106</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.7274780721545</v>
+        <v>26.41906242083419</v>
       </c>
       <c r="C17">
-        <v>17.76540855694801</v>
+        <v>20.33330628598094</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.57242100546343</v>
+        <v>10.97729769276085</v>
       </c>
       <c r="F17">
-        <v>47.10522954091041</v>
+        <v>77.0204190649166</v>
       </c>
       <c r="G17">
-        <v>28.97000578083193</v>
+        <v>2.081956391862167</v>
       </c>
       <c r="H17">
-        <v>29.36152119412707</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.21545991055846</v>
+        <v>12.76636274111008</v>
       </c>
       <c r="K17">
-        <v>22.59389814388317</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>3.442673282650639</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>11.59874454826497</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.37680768015581</v>
+        <v>26.03862223546691</v>
       </c>
       <c r="C18">
-        <v>17.53175066818519</v>
+        <v>20.03182285694406</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>25.23290322059866</v>
+        <v>10.83858128162289</v>
       </c>
       <c r="F18">
-        <v>46.43156641422859</v>
+        <v>76.15832229423084</v>
       </c>
       <c r="G18">
-        <v>28.59200062959407</v>
+        <v>2.086251486620278</v>
       </c>
       <c r="H18">
-        <v>29.03219634016342</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.10099300835702</v>
+        <v>12.66713448519219</v>
       </c>
       <c r="K18">
-        <v>22.29428892623368</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>3.470457984896336</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>11.42274147308172</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.25742900325182</v>
+        <v>25.90951870526381</v>
       </c>
       <c r="C19">
-        <v>17.45223800615402</v>
+        <v>19.92940282754439</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>25.11738943861683</v>
+        <v>10.79149270758144</v>
       </c>
       <c r="F19">
-        <v>46.20253812766863</v>
+        <v>75.86604971502204</v>
       </c>
       <c r="G19">
-        <v>28.46401932852822</v>
+        <v>2.087703589026534</v>
       </c>
       <c r="H19">
-        <v>28.92095273351676</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.06251674706929</v>
+        <v>12.63357111253403</v>
       </c>
       <c r="K19">
-        <v>22.19230817219054</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>3.479949206957072</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>11.36296354255634</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.79207435082721</v>
+        <v>26.48933858796854</v>
       </c>
       <c r="C20">
-        <v>17.80846526783026</v>
+        <v>20.3889455479815</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>25.63499561628803</v>
+        <v>11.00291481272222</v>
       </c>
       <c r="F20">
-        <v>47.22946967902799</v>
+        <v>77.17980010451548</v>
       </c>
       <c r="G20">
-        <v>29.039970847054</v>
+        <v>2.081160349356395</v>
       </c>
       <c r="H20">
-        <v>29.42259753934196</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.23677997935413</v>
+        <v>12.78474480849707</v>
       </c>
       <c r="K20">
-        <v>22.64909575643291</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>3.437571577065058</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>11.63123285642147</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.54507373544827</v>
+        <v>28.41998569516278</v>
       </c>
       <c r="C21">
-        <v>18.97873914495504</v>
+        <v>21.91187988095195</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>27.33709302327393</v>
+        <v>11.70584205621109</v>
       </c>
       <c r="F21">
-        <v>50.6181587103906</v>
+        <v>81.57232121348453</v>
       </c>
       <c r="G21">
-        <v>30.97716355224049</v>
+        <v>2.058963134620429</v>
       </c>
       <c r="H21">
-        <v>31.12763577484434</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.84287756166239</v>
+        <v>13.29578416950528</v>
       </c>
       <c r="K21">
-        <v>24.14787546036593</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>3.540110779929341</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>12.52128480465765</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.66066697112809</v>
+        <v>29.67277544406609</v>
       </c>
       <c r="C22">
-        <v>19.7253529263254</v>
+        <v>22.89519800492261</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28.42440101564354</v>
+        <v>12.16112990141187</v>
       </c>
       <c r="F22">
-        <v>52.79157745063675</v>
+        <v>84.43423254654412</v>
       </c>
       <c r="G22">
-        <v>32.29176204794663</v>
+        <v>2.044212803340615</v>
       </c>
       <c r="H22">
-        <v>32.25875487229938</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13.2558363042418</v>
+        <v>13.63317381778414</v>
       </c>
       <c r="K22">
-        <v>25.1025135714709</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>3.661288472116288</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>13.09676738046039</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.06785501751572</v>
+        <v>29.00466825974026</v>
       </c>
       <c r="C23">
-        <v>19.32842755667771</v>
+        <v>22.37121897154209</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>27.84621033612517</v>
+        <v>11.91840802612734</v>
       </c>
       <c r="F23">
-        <v>51.63503225792007</v>
+        <v>82.90705261247545</v>
       </c>
       <c r="G23">
-        <v>31.5841901439968</v>
+        <v>2.052113593293336</v>
       </c>
       <c r="H23">
-        <v>31.65335431390279</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.03378446022315</v>
+        <v>13.45271348255537</v>
       </c>
       <c r="K23">
-        <v>24.59515162007832</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>3.596458386918805</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>12.79003427694905</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.76288242795584</v>
+        <v>26.45757228633225</v>
       </c>
       <c r="C24">
-        <v>17.78900678253139</v>
+        <v>20.36379739076106</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25.60671604736741</v>
+        <v>10.99133560713908</v>
       </c>
       <c r="F24">
-        <v>47.17331828834693</v>
+        <v>77.10775156694328</v>
       </c>
       <c r="G24">
-        <v>29.00833991661599</v>
+        <v>2.081520279542836</v>
       </c>
       <c r="H24">
-        <v>29.394980528272</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.22713614466218</v>
+        <v>12.77643372775728</v>
       </c>
       <c r="K24">
-        <v>22.62415093999713</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>3.439876445592583</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>11.61654834571859</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.13378783901245</v>
+        <v>23.73854080142487</v>
       </c>
       <c r="C25">
-        <v>16.04044426836362</v>
+        <v>18.12454178927349</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.06821923776454</v>
+        <v>9.965252322916568</v>
       </c>
       <c r="F25">
-        <v>42.15500402766304</v>
+        <v>70.77264222609568</v>
       </c>
       <c r="G25">
-        <v>26.24942329998642</v>
+        <v>2.112707882289968</v>
       </c>
       <c r="H25">
-        <v>27.01855183864896</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.42042016326925</v>
+        <v>12.05518323470007</v>
       </c>
       <c r="K25">
-        <v>20.37949813998299</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>3.650818360550704</v>
       </c>
       <c r="M25">
+        <v>10.62771952749436</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.89194046032544</v>
+        <v>11.88502579474008</v>
       </c>
       <c r="C2">
-        <v>16.39226763957933</v>
+        <v>6.476953912808783</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.180440571991248</v>
+        <v>14.97696985817939</v>
       </c>
       <c r="F2">
-        <v>66.00935692554044</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.135666073669049</v>
+        <v>16.99937027946316</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.788536419823414</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.52605512239177</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.63244385883109</v>
       </c>
       <c r="L2">
-        <v>3.819343512004156</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>10.33557318442518</v>
+        <v>14.24767244444712</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.70922522743024</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.01809203133046</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.62737099329366</v>
+        <v>11.15579993374985</v>
       </c>
       <c r="C3">
-        <v>15.15836785824613</v>
+        <v>6.309614257307016</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.628077213248808</v>
+        <v>14.09170306825323</v>
       </c>
       <c r="F3">
-        <v>62.71284396740149</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.151398744347865</v>
+        <v>16.91184286279146</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.877045525851058</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.1669747515069</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.11209270592451</v>
       </c>
       <c r="L3">
-        <v>3.940808403489392</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.17080536190679</v>
+        <v>13.35150363206249</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11.87688891687992</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.11801965342066</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.84501427477108</v>
+        <v>10.68267384911189</v>
       </c>
       <c r="C4">
-        <v>14.3690533444546</v>
+        <v>6.204647657626337</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.278398848039183</v>
+        <v>13.53148253188725</v>
       </c>
       <c r="F4">
-        <v>60.65495192935618</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.161192697584697</v>
+        <v>16.88171547931389</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.935674789338096</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.9458944955</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.777782127218245</v>
       </c>
       <c r="L4">
-        <v>4.01876436899975</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.08498855456442</v>
+        <v>12.77173039038408</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>11.9826164244452</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.18975732321177</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.52492048855251</v>
+        <v>10.48350787104581</v>
       </c>
       <c r="C5">
-        <v>14.039153445705</v>
+        <v>6.161356203985414</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.133226171313835</v>
+        <v>13.29922855772481</v>
       </c>
       <c r="F5">
-        <v>59.8080533051322</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.165223833001301</v>
+        <v>16.87513732812605</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.960611845081661</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.85561425595171</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.637908004019351</v>
       </c>
       <c r="L5">
-        <v>4.051359918821524</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>10.0537285145971</v>
+        <v>12.52804073301539</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>12.02641158798175</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.22148633246653</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.47170018738749</v>
+        <v>10.45005294988602</v>
       </c>
       <c r="C6">
-        <v>13.98386814770497</v>
+        <v>6.154137749196122</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.108958446171242</v>
+        <v>13.2604316068449</v>
       </c>
       <c r="F6">
-        <v>59.66693560432961</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.165895789002811</v>
+        <v>16.87438194179961</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.964814852170926</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.84061110162624</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.61446499886071</v>
       </c>
       <c r="L6">
-        <v>4.056821901668481</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>10.04875758764884</v>
+        <v>12.48712779466282</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>12.03372696188155</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.22690234283162</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.84070219519661</v>
+        <v>10.68001355924038</v>
       </c>
       <c r="C7">
-        <v>14.36463793871039</v>
+        <v>6.204065849283732</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.276451850779466</v>
+        <v>13.52836596176772</v>
       </c>
       <c r="F7">
-        <v>60.64356350655263</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.16124689298701</v>
+        <v>16.88160401657717</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.936006908212343</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.9446777455618</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.775910348604668</v>
       </c>
       <c r="L7">
-        <v>4.019200634714017</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>10.08455214172647</v>
+        <v>12.76847397557041</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>11.98320417077765</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.19017527705683</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.45723318619378</v>
+        <v>11.6388636074355</v>
       </c>
       <c r="C8">
-        <v>15.97321960542893</v>
+        <v>6.41973971862951</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.992143291576498</v>
+        <v>14.67531049718549</v>
       </c>
       <c r="F8">
-        <v>64.87980497765322</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.14106690872836</v>
+        <v>16.96415101770921</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.818145073939665</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.40234305245661</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.45614696993824</v>
       </c>
       <c r="L8">
-        <v>3.860508840175056</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>10.27548475214552</v>
+        <v>13.94479457363985</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11.76646507772032</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.05032159561602</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.60448623898244</v>
+        <v>13.31753424232026</v>
       </c>
       <c r="C9">
-        <v>18.89063724430211</v>
+        <v>6.823407197601132</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.31506797948277</v>
+        <v>16.84092391876978</v>
       </c>
       <c r="F9">
-        <v>72.9205143489352</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.10222970390254</v>
+        <v>17.32309891658219</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.622579881124683</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.29755795526969</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.6696446708122</v>
       </c>
       <c r="L9">
-        <v>3.577539027664481</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.77863167273607</v>
+        <v>16.01811285867132</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.36299841867761</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>11.86383476500513</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.15268255946161</v>
+        <v>14.42820383137063</v>
       </c>
       <c r="C10">
-        <v>20.91337888571655</v>
+        <v>7.106246437187094</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.24461101593326</v>
+        <v>18.4766033747606</v>
       </c>
       <c r="F10">
-        <v>78.6861107374945</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.073605497251838</v>
+        <v>17.71858319454893</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.502937558102521</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.95903847197053</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.48486910957403</v>
       </c>
       <c r="L10">
-        <v>3.419206525093104</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>11.93755594363492</v>
+        <v>17.40091353878657</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.07898474511344</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>11.78803963606009</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.2954990539724</v>
+        <v>14.90703722161458</v>
       </c>
       <c r="C11">
-        <v>21.81397852556208</v>
+        <v>7.231580274956483</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.66056553343485</v>
+        <v>19.18908227249724</v>
       </c>
       <c r="F11">
-        <v>81.28837507145961</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.060413759061654</v>
+        <v>17.92909304740699</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.454305917993234</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>13.26249620559052</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.83878309065173</v>
       </c>
       <c r="L11">
-        <v>3.528160104169864</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>12.46402239400934</v>
+        <v>18.00005108224757</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>10.95231414569329</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>11.76859445921832</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.72663143406491</v>
+        <v>15.08458169272878</v>
       </c>
       <c r="C12">
-        <v>22.15288362002117</v>
+        <v>7.278536590574565</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.81734329535688</v>
+        <v>19.45442572125516</v>
       </c>
       <c r="F12">
-        <v>82.27212132007494</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.055378276197023</v>
+        <v>18.01333529006365</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.436776524692197</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.37796931618988</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.97034614144795</v>
       </c>
       <c r="L12">
-        <v>3.569618194079934</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>12.6622740362808</v>
+        <v>18.22268284156852</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>10.904697951709</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>11.76354149060133</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.63383806514784</v>
+        <v>15.04651205086462</v>
       </c>
       <c r="C13">
-        <v>22.07997687738026</v>
+        <v>7.268446540563304</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.78360629807853</v>
+        <v>19.39747598826888</v>
       </c>
       <c r="F13">
-        <v>82.06030365021947</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.056464821050835</v>
+        <v>17.99498914052198</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.440511481586222</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13.35307154423139</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.94212118929874</v>
       </c>
       <c r="L13">
-        <v>3.560678573396493</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>12.61961902638846</v>
+        <v>18.17492317537625</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>10.91493752960565</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>11.76452458209285</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.33099633163549</v>
+        <v>14.921719530751</v>
       </c>
       <c r="C14">
-        <v>21.84189880611435</v>
+        <v>7.235453654750912</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.67347676305639</v>
+        <v>19.2110010251857</v>
       </c>
       <c r="F14">
-        <v>81.36933323986455</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.060000390067708</v>
+        <v>17.93593234975586</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.452845681158133</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>13.27198372181501</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.84965618638536</v>
       </c>
       <c r="L14">
-        <v>3.531566172217556</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>12.48035230716446</v>
+        <v>18.01845196069212</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>10.94838976542106</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>11.76813158148798</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.14530996266515</v>
+        <v>14.84478896932804</v>
       </c>
       <c r="C15">
-        <v>21.6958138987826</v>
+        <v>7.215178095347659</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.60593223515332</v>
+        <v>19.09620206842012</v>
       </c>
       <c r="F15">
-        <v>80.94592073568995</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>2.06216029629343</v>
+        <v>17.90035119791136</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.460517812294738</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13.22239469353032</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.7926983043953</v>
       </c>
       <c r="L15">
-        <v>3.51376364686349</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>12.39491629269219</v>
+        <v>17.92205717236337</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>10.96892559380959</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>11.77064632651044</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.07772521610972</v>
+        <v>14.39638093475734</v>
       </c>
       <c r="C16">
-        <v>20.85418418047729</v>
+        <v>7.097986259288075</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.21730910437285</v>
+        <v>18.42941255910955</v>
       </c>
       <c r="F16">
-        <v>78.51573359553761</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>2.074462918613968</v>
+        <v>17.70545302644528</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.506236794401983</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.93927348768259</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.46139721252064</v>
       </c>
       <c r="L16">
-        <v>3.412107607781336</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>11.90297099225106</v>
+        <v>17.36116099282333</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.08731279228307</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>11.78962558648817</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.41906242083419</v>
+        <v>14.11454370543627</v>
       </c>
       <c r="C17">
-        <v>20.33330628598094</v>
+        <v>7.025220238935521</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.97729769276085</v>
+        <v>18.01232418472888</v>
       </c>
       <c r="F17">
-        <v>77.0204190649166</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.081956391862167</v>
+        <v>17.59382493409257</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.535804473806588</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.76636274111008</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.25379938422502</v>
       </c>
       <c r="L17">
-        <v>3.442673282650639</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>11.59874454826497</v>
+        <v>17.00944460867621</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.1605783692704</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>11.8052241500559</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.03862223546691</v>
+        <v>13.94995056326786</v>
       </c>
       <c r="C18">
-        <v>20.03182285694406</v>
+        <v>6.983054944745887</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.83858128162289</v>
+        <v>17.76944579988882</v>
       </c>
       <c r="F18">
-        <v>76.15832229423084</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>2.086251486620278</v>
+        <v>17.53249388480268</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.553352975899627</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.66713448519219</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.13280123777811</v>
       </c>
       <c r="L18">
-        <v>3.470457984896336</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>11.42274147308172</v>
+        <v>16.80432829017492</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.20295755084811</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>11.81560203852521</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.90951870526381</v>
+        <v>13.89379435294686</v>
       </c>
       <c r="C19">
-        <v>19.92940282754439</v>
+        <v>6.968725720698981</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.79149270758144</v>
+        <v>17.68669700831088</v>
       </c>
       <c r="F19">
-        <v>75.86604971502204</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>2.087703589026534</v>
+        <v>17.51221768613069</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.559386126225605</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.63357111253403</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.09156046243637</v>
       </c>
       <c r="L19">
-        <v>3.479949206957072</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>11.36296354255634</v>
+        <v>16.73439390327017</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.21734779641361</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>11.81935281937098</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.48933858796854</v>
+        <v>14.14480311404664</v>
       </c>
       <c r="C20">
-        <v>20.3889455479815</v>
+        <v>7.03299881561786</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.00291481272222</v>
+        <v>18.0570317916042</v>
       </c>
       <c r="F20">
-        <v>77.17980010451548</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.081160349356395</v>
+        <v>17.6054094446772</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.532600481747734</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.78474480849707</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.27606361395643</v>
       </c>
       <c r="L20">
-        <v>3.437571577065058</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>11.63123285642147</v>
+        <v>17.04717675302836</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.15275450225531</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>11.80341707320868</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.41998569516278</v>
+        <v>14.95847651518027</v>
       </c>
       <c r="C21">
-        <v>21.91187988095195</v>
+        <v>7.245158357801558</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.70584205621109</v>
+        <v>19.26589345593319</v>
       </c>
       <c r="F21">
-        <v>81.57232121348453</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.058963134620429</v>
+        <v>17.9531550230787</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.449198328140547</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13.29578416950528</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.87688219634575</v>
       </c>
       <c r="L21">
-        <v>3.540110779929341</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>12.52128480465765</v>
+        <v>18.06452621165215</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.93855460052895</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>11.76700821390751</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.67277544406609</v>
+        <v>15.46824200639611</v>
       </c>
       <c r="C22">
-        <v>22.89519800492261</v>
+        <v>7.380864270544464</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.16112990141187</v>
+        <v>20.0300239145511</v>
       </c>
       <c r="F22">
-        <v>84.43423254654412</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>2.044212803340615</v>
+        <v>18.20685354554149</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.3998842169921</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13.63317381778414</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.25522922012628</v>
       </c>
       <c r="L22">
-        <v>3.661288472116288</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>13.09676738046039</v>
+        <v>18.70468715270874</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.80060388391399</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>11.75675104470961</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.00466825974026</v>
+        <v>15.19817772382086</v>
       </c>
       <c r="C23">
-        <v>22.37121897154209</v>
+        <v>7.308713351346903</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.91840802612734</v>
+        <v>19.6245344029108</v>
       </c>
       <c r="F23">
-        <v>82.90705261247545</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.052113593293336</v>
+        <v>18.06899643315641</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.42571018098667</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.45271348255537</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.05461376914874</v>
       </c>
       <c r="L23">
-        <v>3.596458386918805</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>12.79003427694905</v>
+        <v>18.36526578709563</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.87404812703218</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>11.76093696510919</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.45757228633225</v>
+        <v>14.1311308142785</v>
       </c>
       <c r="C24">
-        <v>20.36379739076106</v>
+        <v>7.0294831505266</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.99133560713908</v>
+        <v>18.03682910969928</v>
       </c>
       <c r="F24">
-        <v>77.10775156694328</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.081520279542836</v>
+        <v>17.60016323442019</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.534047298493785</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.77643372775728</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.26600308525268</v>
       </c>
       <c r="L24">
-        <v>3.439876445592583</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>11.61654834571859</v>
+        <v>17.03012711804742</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.15629086852674</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>11.80422967183208</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.73854080142487</v>
+        <v>12.88499438126858</v>
       </c>
       <c r="C25">
-        <v>18.12454178927349</v>
+        <v>6.716485120012491</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.965252322916568</v>
+        <v>16.22988125689837</v>
       </c>
       <c r="F25">
-        <v>70.77264222609568</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.112707882289968</v>
+        <v>17.20360660489638</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.671446806939583</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.05518323470007</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.35460339769702</v>
       </c>
       <c r="L25">
-        <v>3.650818360550704</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.62771952749436</v>
+        <v>15.48205911280422</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>11.46991349340576</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.90410968651932</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.88502579474008</v>
+        <v>7.808940836089925</v>
       </c>
       <c r="C2">
-        <v>6.476953912808783</v>
+        <v>6.336820006395645</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.97696985817939</v>
+        <v>13.16751500615235</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>16.99937027946316</v>
+        <v>23.46375690846661</v>
       </c>
       <c r="H2">
-        <v>7.788536419823414</v>
+        <v>13.07585118885329</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.63244385883109</v>
+        <v>8.15568647088423</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.24767244444712</v>
+        <v>12.9348255823596</v>
       </c>
       <c r="N2">
-        <v>11.70922522743024</v>
+        <v>17.79635808369551</v>
       </c>
       <c r="O2">
-        <v>12.01809203133046</v>
+        <v>19.17627809140492</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.15579993374985</v>
+        <v>7.517273681607985</v>
       </c>
       <c r="C3">
-        <v>6.309614257307016</v>
+        <v>6.279838658053961</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.09170306825323</v>
+        <v>12.9515914680131</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>16.91184286279146</v>
+        <v>23.55791194171996</v>
       </c>
       <c r="H3">
-        <v>7.877045525851058</v>
+        <v>13.12165793980789</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.11209270592451</v>
+        <v>7.925188406367674</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.35150363206249</v>
+        <v>12.75956877088353</v>
       </c>
       <c r="N3">
-        <v>11.87688891687992</v>
+        <v>17.84937946615135</v>
       </c>
       <c r="O3">
-        <v>12.11801965342066</v>
+        <v>19.25517580693503</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.68267384911189</v>
+        <v>7.333251365390312</v>
       </c>
       <c r="C4">
-        <v>6.204647657626337</v>
+        <v>6.244450165750997</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.53148253188725</v>
+        <v>12.82179424058236</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>16.88171547931389</v>
+        <v>23.62355177637745</v>
       </c>
       <c r="H4">
-        <v>7.935674789338096</v>
+        <v>13.15167176831013</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.777782127218245</v>
+        <v>7.778730925400929</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.77173039038408</v>
+        <v>12.65370863413821</v>
       </c>
       <c r="N4">
-        <v>11.9826164244452</v>
+        <v>17.88356354045589</v>
       </c>
       <c r="O4">
-        <v>12.18975732321177</v>
+        <v>19.30750560318572</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.48350787104581</v>
+        <v>7.257134457001943</v>
       </c>
       <c r="C5">
-        <v>6.161356203985414</v>
+        <v>6.229936237903948</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.29922855772481</v>
+        <v>12.76967705153642</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>16.87513732812605</v>
+        <v>23.65225902559355</v>
       </c>
       <c r="H5">
-        <v>7.960611845081661</v>
+        <v>13.1643778074053</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.637908004019351</v>
+        <v>7.717861435591747</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.52804073301539</v>
+        <v>12.61106198792493</v>
       </c>
       <c r="N5">
-        <v>12.02641158798175</v>
+        <v>17.89790447352193</v>
       </c>
       <c r="O5">
-        <v>12.22148633246653</v>
+        <v>19.32980644482137</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.45005294988602</v>
+        <v>7.244430879186946</v>
       </c>
       <c r="C6">
-        <v>6.154137749196122</v>
+        <v>6.227520844287315</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.2604316068449</v>
+        <v>12.76107213782246</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>16.87438194179961</v>
+        <v>23.65714382984622</v>
       </c>
       <c r="H6">
-        <v>7.964814852170926</v>
+        <v>13.16651634402385</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.61446499886071</v>
+        <v>7.70768405570055</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.48712779466282</v>
+        <v>12.60401179479384</v>
       </c>
       <c r="N6">
-        <v>12.03372696188155</v>
+        <v>17.90031060857819</v>
       </c>
       <c r="O6">
-        <v>12.22690234283162</v>
+        <v>19.33356839682995</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.68001355924038</v>
+        <v>7.332229225463102</v>
       </c>
       <c r="C7">
-        <v>6.204065849283732</v>
+        <v>6.244254790872892</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.52836596176772</v>
+        <v>12.82108812626282</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>16.88160401657717</v>
+        <v>23.62393101607719</v>
       </c>
       <c r="H7">
-        <v>7.936006908212343</v>
+        <v>13.15184120204416</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.775910348604668</v>
+        <v>7.77791475047943</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.76847397557041</v>
+        <v>12.65313142468293</v>
       </c>
       <c r="N7">
-        <v>11.98320417077765</v>
+        <v>17.88375528316253</v>
       </c>
       <c r="O7">
-        <v>12.19017527705683</v>
+        <v>19.30780240984821</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.6388636074355</v>
+        <v>7.709464243182443</v>
       </c>
       <c r="C8">
-        <v>6.41973971862951</v>
+        <v>6.317261107998384</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.67531049718549</v>
+        <v>13.09253400159935</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>16.96415101770921</v>
+        <v>23.49459092171411</v>
       </c>
       <c r="H8">
-        <v>7.818145073939665</v>
+        <v>13.09125363946116</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.45614696993824</v>
+        <v>8.077264516598566</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.94479457363985</v>
+        <v>12.87406596536883</v>
       </c>
       <c r="N8">
-        <v>11.76646507772032</v>
+        <v>17.81430246938883</v>
       </c>
       <c r="O8">
-        <v>12.05032159561602</v>
+        <v>19.20267469883587</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.31753424232026</v>
+        <v>8.405577227446461</v>
       </c>
       <c r="C9">
-        <v>6.823407197601132</v>
+        <v>6.45688341522709</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.84092391876978</v>
+        <v>13.64347326951698</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>17.32309891658219</v>
+        <v>23.30349696532243</v>
       </c>
       <c r="H9">
-        <v>7.622579881124683</v>
+        <v>12.98740936412596</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.6696446708122</v>
+        <v>8.623065051803716</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.01811285867132</v>
+        <v>13.31885022681607</v>
       </c>
       <c r="N9">
-        <v>11.36299841867761</v>
+        <v>17.69097884726695</v>
       </c>
       <c r="O9">
-        <v>11.86383476500513</v>
+        <v>19.02740954051824</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.42820383137063</v>
+        <v>8.885212895353581</v>
       </c>
       <c r="C10">
-        <v>7.106246437187094</v>
+        <v>6.556835264816828</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.4766033747606</v>
+        <v>14.05501425397536</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>17.71858319454893</v>
+        <v>23.20178232651834</v>
       </c>
       <c r="H10">
-        <v>7.502937558102521</v>
+        <v>12.92021884041896</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.48486910957403</v>
+        <v>8.996429596846903</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.40091353878657</v>
+        <v>13.64952229507914</v>
       </c>
       <c r="N10">
-        <v>11.07898474511344</v>
+        <v>17.60814994982367</v>
       </c>
       <c r="O10">
-        <v>11.78803963606009</v>
+        <v>18.91754741814109</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.90703722161458</v>
+        <v>9.095617801709366</v>
       </c>
       <c r="C11">
-        <v>7.231580274956483</v>
+        <v>6.601637674087748</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.18908227249724</v>
+        <v>14.24274889712503</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>17.92909304740699</v>
+        <v>23.16401717413054</v>
       </c>
       <c r="H11">
-        <v>7.454305917993234</v>
+        <v>12.89162477804802</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.83878309065173</v>
+        <v>9.159835165481258</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.00005108224757</v>
+        <v>13.80013963089687</v>
       </c>
       <c r="N11">
-        <v>10.95231414569329</v>
+        <v>17.57214262658616</v>
       </c>
       <c r="O11">
-        <v>11.76859445921832</v>
+        <v>18.87168942979028</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.08458169272878</v>
+        <v>9.174111713921077</v>
       </c>
       <c r="C12">
-        <v>7.278536590574565</v>
+        <v>6.618499322574528</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.45442572125516</v>
+        <v>14.31383726712016</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>18.01333529006365</v>
+        <v>23.15094750955027</v>
       </c>
       <c r="H12">
-        <v>7.436776524692197</v>
+        <v>12.8810801589676</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.97034614144795</v>
+        <v>9.220754258365025</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.22268284156852</v>
+        <v>13.85714854001564</v>
       </c>
       <c r="N12">
-        <v>10.904697951709</v>
+        <v>17.55874691530119</v>
       </c>
       <c r="O12">
-        <v>11.76354149060133</v>
+        <v>18.85491789417624</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.04651205086462</v>
+        <v>9.157260117295996</v>
       </c>
       <c r="C13">
-        <v>7.268446540563304</v>
+        <v>6.614872622222457</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.39747598826888</v>
+        <v>14.29852844321136</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>17.99498914052198</v>
+        <v>23.15370741625164</v>
       </c>
       <c r="H13">
-        <v>7.440511481586222</v>
+        <v>12.88333853202536</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.94212118929874</v>
+        <v>9.207677383629004</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.17492317537625</v>
+        <v>13.844872684842</v>
       </c>
       <c r="N13">
-        <v>10.91493752960565</v>
+        <v>17.56162128534424</v>
       </c>
       <c r="O13">
-        <v>11.76452458209285</v>
+        <v>18.85850350549914</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.921719530751</v>
+        <v>9.102099558211908</v>
       </c>
       <c r="C14">
-        <v>7.235453654750912</v>
+        <v>6.603027024081765</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.2110010251857</v>
+        <v>14.24859786958286</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>17.93593234975586</v>
+        <v>23.16291720608758</v>
       </c>
       <c r="H14">
-        <v>7.452845681158133</v>
+        <v>12.89075158819713</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.84965618638536</v>
+        <v>9.16486641314939</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.01845196069212</v>
+        <v>13.80483062763156</v>
       </c>
       <c r="N14">
-        <v>10.94838976542106</v>
+        <v>17.57103575917326</v>
       </c>
       <c r="O14">
-        <v>11.76813158148798</v>
+        <v>18.87029771383859</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.84478896932804</v>
+        <v>9.068156495350562</v>
       </c>
       <c r="C15">
-        <v>7.215178095347659</v>
+        <v>6.595757460500973</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.09620206842012</v>
+        <v>14.21801134103823</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>17.90035119791136</v>
+        <v>23.16871903411689</v>
       </c>
       <c r="H15">
-        <v>7.460517812294738</v>
+        <v>12.89532919367638</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.7926983043953</v>
+        <v>9.138517642129159</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.92205717236337</v>
+        <v>13.78029865754109</v>
       </c>
       <c r="N15">
-        <v>10.96892559380959</v>
+        <v>17.5768335558595</v>
       </c>
       <c r="O15">
-        <v>11.77064632651044</v>
+        <v>18.87759939656906</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.39638093475734</v>
+        <v>8.871300270159296</v>
       </c>
       <c r="C16">
-        <v>7.097986259288075</v>
+        <v>6.553893207190447</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.42941255910955</v>
+        <v>14.0427491576952</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>17.70545302644528</v>
+        <v>23.20442222616485</v>
       </c>
       <c r="H16">
-        <v>7.506236794401983</v>
+        <v>12.92212718460548</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.46139721252064</v>
+        <v>8.985618169011587</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.36116099282333</v>
+        <v>13.63967830276206</v>
       </c>
       <c r="N16">
-        <v>11.08731279228307</v>
+        <v>17.6105366760536</v>
       </c>
       <c r="O16">
-        <v>11.78962558648817</v>
+        <v>18.92062736431184</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.11454370543627</v>
+        <v>8.748494526842808</v>
       </c>
       <c r="C17">
-        <v>7.025220238935521</v>
+        <v>6.528034291996988</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>18.01232418472888</v>
+        <v>13.93530915135564</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>17.59382493409257</v>
+        <v>23.22850938135281</v>
       </c>
       <c r="H17">
-        <v>7.535804473806588</v>
+        <v>12.9390716693254</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.25379938422502</v>
+        <v>8.890145264685076</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.00944460867621</v>
+        <v>13.55342258820091</v>
       </c>
       <c r="N17">
-        <v>11.1605783692704</v>
+        <v>17.63164000044285</v>
       </c>
       <c r="O17">
-        <v>11.8052241500559</v>
+        <v>18.9480797044258</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.94995056326786</v>
+        <v>8.677130441362833</v>
       </c>
       <c r="C18">
-        <v>6.983054944745887</v>
+        <v>6.513098707031316</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.76944579988882</v>
+        <v>13.87356619486967</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>17.53249388480268</v>
+        <v>23.24316379313257</v>
       </c>
       <c r="H18">
-        <v>7.553352975899627</v>
+        <v>12.94900323845792</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.13280123777811</v>
+        <v>8.834627364170302</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.80432829017492</v>
+        <v>13.50383191827554</v>
       </c>
       <c r="N18">
-        <v>11.20295755084811</v>
+        <v>17.64393550264051</v>
       </c>
       <c r="O18">
-        <v>11.81560203852521</v>
+        <v>18.96425715313171</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.89379435294686</v>
+        <v>8.652844546117949</v>
       </c>
       <c r="C19">
-        <v>6.968725720698981</v>
+        <v>6.508031342295988</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.68669700831088</v>
+        <v>13.85267272612537</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>17.51221768613069</v>
+        <v>23.24826268819889</v>
       </c>
       <c r="H19">
-        <v>7.559386126225605</v>
+        <v>12.95239776968259</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.09156046243637</v>
+        <v>8.815727213606277</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.73439390327017</v>
+        <v>13.48704671251097</v>
       </c>
       <c r="N19">
-        <v>11.21734779641361</v>
+        <v>17.64812561588347</v>
       </c>
       <c r="O19">
-        <v>11.81935281937098</v>
+        <v>18.96980107918301</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.14480311404664</v>
+        <v>8.761643385055553</v>
       </c>
       <c r="C20">
-        <v>7.03299881561786</v>
+        <v>6.530793517616853</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.0570317916042</v>
+        <v>13.9467413384412</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>17.6054094446772</v>
+        <v>23.22586239256458</v>
       </c>
       <c r="H20">
-        <v>7.532600481747734</v>
+        <v>12.93724869729217</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.27606361395643</v>
+        <v>8.900371323064892</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.04717675302836</v>
+        <v>13.56260284625519</v>
       </c>
       <c r="N20">
-        <v>11.15275450225531</v>
+        <v>17.62937722919309</v>
       </c>
       <c r="O20">
-        <v>11.80341707320868</v>
+        <v>18.94511723034582</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.95847651518027</v>
+        <v>9.118334084335538</v>
       </c>
       <c r="C21">
-        <v>7.245158357801558</v>
+        <v>6.60650925226993</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.26589345593319</v>
+        <v>14.26326436840625</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>17.9531550230787</v>
+        <v>23.16017859221405</v>
       </c>
       <c r="H21">
-        <v>7.449198328140547</v>
+        <v>12.8885665053314</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.87688219634575</v>
+        <v>9.177467306721237</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.06452621165215</v>
+        <v>13.81659309862577</v>
       </c>
       <c r="N21">
-        <v>10.93855460052895</v>
+        <v>17.56826400802815</v>
       </c>
       <c r="O21">
-        <v>11.76700821390751</v>
+        <v>18.86681733817177</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.46824200639611</v>
+        <v>9.344539959792975</v>
       </c>
       <c r="C22">
-        <v>7.380864270544464</v>
+        <v>6.655383664330976</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.0300239145511</v>
+        <v>14.47008084136701</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>18.20685354554149</v>
+        <v>23.12442998740133</v>
       </c>
       <c r="H22">
-        <v>7.3998842169921</v>
+        <v>12.8584013026026</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.25522922012628</v>
+        <v>9.352962619729976</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.70468715270874</v>
+        <v>13.98241118208318</v>
       </c>
       <c r="N22">
-        <v>10.80060388391399</v>
+        <v>17.52971843241022</v>
       </c>
       <c r="O22">
-        <v>11.75675104470961</v>
+        <v>18.8191062188032</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.19817772382086</v>
+        <v>9.224460648155791</v>
       </c>
       <c r="C23">
-        <v>7.308713351346903</v>
+        <v>6.629356986199491</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.6245344029108</v>
+        <v>14.35972852470926</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>18.06899643315641</v>
+        <v>23.14285024704692</v>
       </c>
       <c r="H23">
-        <v>7.42571018098667</v>
+        <v>12.87434997305971</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.05461376914874</v>
+        <v>9.259820135305837</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.36526578709563</v>
+        <v>13.8939449227826</v>
       </c>
       <c r="N23">
-        <v>10.87404812703218</v>
+        <v>17.55016355668071</v>
       </c>
       <c r="O23">
-        <v>11.76093696510919</v>
+        <v>18.84425320210813</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.1311308142785</v>
+        <v>8.755701153094979</v>
       </c>
       <c r="C24">
-        <v>7.0294831505266</v>
+        <v>6.529546285863123</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.03682910969928</v>
+        <v>13.94157276054442</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>17.60016323442019</v>
+        <v>23.22705658498479</v>
       </c>
       <c r="H24">
-        <v>7.534047298493785</v>
+        <v>12.93807227122275</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.26600308525268</v>
+        <v>8.895750079546826</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.03012711804742</v>
+        <v>13.55845245087987</v>
       </c>
       <c r="N24">
-        <v>11.15629086852674</v>
+        <v>17.6303997205107</v>
       </c>
       <c r="O24">
-        <v>11.80422967183208</v>
+        <v>18.9464553354256</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.88499438126858</v>
+        <v>8.222510274468741</v>
       </c>
       <c r="C25">
-        <v>6.716485120012491</v>
+        <v>6.419539924368712</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.22988125689837</v>
+        <v>13.49291166708775</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>17.20360660489638</v>
+        <v>23.34843811001003</v>
       </c>
       <c r="H25">
-        <v>7.671446806939583</v>
+        <v>13.01390180475591</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.35460339769702</v>
+        <v>8.480099658334831</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.48205911280422</v>
+        <v>13.19761506146762</v>
       </c>
       <c r="N25">
-        <v>11.46991349340576</v>
+        <v>17.72297037026</v>
       </c>
       <c r="O25">
-        <v>11.90410968651932</v>
+        <v>19.07150883027865</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.808940836089925</v>
+        <v>11.88502579474011</v>
       </c>
       <c r="C2">
-        <v>6.336820006395645</v>
+        <v>6.476953912808675</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.16751500615235</v>
+        <v>14.97696985817941</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>23.46375690846661</v>
+        <v>16.99937027946324</v>
       </c>
       <c r="H2">
-        <v>13.07585118885329</v>
+        <v>7.788536419823355</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.15568647088423</v>
+        <v>10.63244385883109</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.9348255823596</v>
+        <v>14.24767244444713</v>
       </c>
       <c r="N2">
-        <v>17.79635808369551</v>
+        <v>11.70922522743024</v>
       </c>
       <c r="O2">
-        <v>19.17627809140492</v>
+        <v>12.01809203133046</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.517273681607985</v>
+        <v>11.15579993374986</v>
       </c>
       <c r="C3">
-        <v>6.279838658053961</v>
+        <v>6.309614257306976</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.9515914680131</v>
+        <v>14.09170306825323</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>23.55791194171996</v>
+        <v>16.91184286279142</v>
       </c>
       <c r="H3">
-        <v>13.12165793980789</v>
+        <v>7.877045525851055</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.925188406367674</v>
+        <v>10.11209270592451</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.75956877088353</v>
+        <v>13.35150363206251</v>
       </c>
       <c r="N3">
-        <v>17.84937946615135</v>
+        <v>11.87688891687992</v>
       </c>
       <c r="O3">
-        <v>19.25517580693503</v>
+        <v>12.11801965342065</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.333251365390312</v>
+        <v>10.68267384911177</v>
       </c>
       <c r="C4">
-        <v>6.244450165750997</v>
+        <v>6.204647657626347</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.82179424058236</v>
+        <v>13.53148253188724</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>23.62355177637745</v>
+        <v>16.88171547931397</v>
       </c>
       <c r="H4">
-        <v>13.15167176831013</v>
+        <v>7.935674789338155</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.778730925400929</v>
+        <v>9.777782127218178</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.65370863413821</v>
+        <v>12.77173039038404</v>
       </c>
       <c r="N4">
-        <v>17.88356354045589</v>
+        <v>11.98261642444517</v>
       </c>
       <c r="O4">
-        <v>19.30750560318572</v>
+        <v>12.18975732321181</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.257134457001943</v>
+        <v>10.48350787104579</v>
       </c>
       <c r="C5">
-        <v>6.229936237903948</v>
+        <v>6.161356203985283</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.76967705153642</v>
+        <v>13.29922855772483</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>23.65225902559355</v>
+        <v>16.87513732812604</v>
       </c>
       <c r="H5">
-        <v>13.1643778074053</v>
+        <v>7.960611845081661</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.717861435591747</v>
+        <v>9.637908004019295</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.61106198792493</v>
+        <v>12.52804073301533</v>
       </c>
       <c r="N5">
-        <v>17.89790447352193</v>
+        <v>12.02641158798172</v>
       </c>
       <c r="O5">
-        <v>19.32980644482137</v>
+        <v>12.22148633246653</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.244430879186946</v>
+        <v>10.45005294988604</v>
       </c>
       <c r="C6">
-        <v>6.227520844287315</v>
+        <v>6.154137749196002</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.76107213782246</v>
+        <v>13.26043160684489</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>23.65714382984622</v>
+        <v>16.87438194179949</v>
       </c>
       <c r="H6">
-        <v>13.16651634402385</v>
+        <v>7.964814852170853</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.70768405570055</v>
+        <v>9.614464998860731</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.60401179479384</v>
+        <v>12.48712779466284</v>
       </c>
       <c r="N6">
-        <v>17.90031060857819</v>
+        <v>12.03372696188151</v>
       </c>
       <c r="O6">
-        <v>19.33356839682995</v>
+        <v>12.22690234283158</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.332229225463102</v>
+        <v>10.6800135592403</v>
       </c>
       <c r="C7">
-        <v>6.244254790872892</v>
+        <v>6.20406584928387</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.82108812626282</v>
+        <v>13.5283659617677</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>23.62393101607719</v>
+        <v>16.88160401657716</v>
       </c>
       <c r="H7">
-        <v>13.15184120204416</v>
+        <v>7.936006908212471</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.77791475047943</v>
+        <v>9.775910348604668</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.65313142468293</v>
+        <v>12.76847397557042</v>
       </c>
       <c r="N7">
-        <v>17.88375528316253</v>
+        <v>11.98320417077769</v>
       </c>
       <c r="O7">
-        <v>19.30780240984821</v>
+        <v>12.19017527705685</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.709464243182443</v>
+        <v>11.63886360743552</v>
       </c>
       <c r="C8">
-        <v>6.317261107998384</v>
+        <v>6.419739718629305</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.09253400159935</v>
+        <v>14.6753104971855</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>23.49459092171411</v>
+        <v>16.96415101770915</v>
       </c>
       <c r="H8">
-        <v>13.09125363946116</v>
+        <v>7.818145073939597</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.077264516598566</v>
+        <v>10.45614696993823</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.87406596536883</v>
+        <v>13.94479457363982</v>
       </c>
       <c r="N8">
-        <v>17.81430246938883</v>
+        <v>11.76646507772029</v>
       </c>
       <c r="O8">
-        <v>19.20267469883587</v>
+        <v>12.05032159561594</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.405577227446461</v>
+        <v>13.3175342423203</v>
       </c>
       <c r="C9">
-        <v>6.45688341522709</v>
+        <v>6.823407197601143</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.64347326951698</v>
+        <v>16.84092391876977</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>23.30349696532243</v>
+        <v>17.32309891658199</v>
       </c>
       <c r="H9">
-        <v>12.98740936412596</v>
+        <v>7.622579881124568</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.623065051803716</v>
+        <v>11.66964467081227</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.31885022681607</v>
+        <v>16.01811285867133</v>
       </c>
       <c r="N9">
-        <v>17.69097884726695</v>
+        <v>11.36299841867758</v>
       </c>
       <c r="O9">
-        <v>19.02740954051824</v>
+        <v>11.86383476500502</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.885212895353581</v>
+        <v>14.42820383137063</v>
       </c>
       <c r="C10">
-        <v>6.556835264816828</v>
+        <v>7.106246437186889</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.05501425397536</v>
+        <v>18.47660337476061</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>23.20178232651834</v>
+        <v>17.71858319454894</v>
       </c>
       <c r="H10">
-        <v>12.92021884041896</v>
+        <v>7.502937558102521</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.996429596846903</v>
+        <v>12.48486910957399</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.64952229507914</v>
+        <v>17.40091353878657</v>
       </c>
       <c r="N10">
-        <v>17.60814994982367</v>
+        <v>11.07898474511344</v>
       </c>
       <c r="O10">
-        <v>18.91754741814109</v>
+        <v>11.78803963606013</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.095617801709366</v>
+        <v>14.90703722161456</v>
       </c>
       <c r="C11">
-        <v>6.601637674087748</v>
+        <v>7.231580274956581</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.24274889712503</v>
+        <v>19.18908227249726</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>23.16401717413054</v>
+        <v>17.92909304740697</v>
       </c>
       <c r="H11">
-        <v>12.89162477804802</v>
+        <v>7.45430591799323</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.159835165481258</v>
+        <v>12.83878309065177</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.80013963089687</v>
+        <v>18.00005108224759</v>
       </c>
       <c r="N11">
-        <v>17.57214262658616</v>
+        <v>10.95231414569332</v>
       </c>
       <c r="O11">
-        <v>18.87168942979028</v>
+        <v>11.76859445921831</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.174111713921077</v>
+        <v>15.08458169272879</v>
       </c>
       <c r="C12">
-        <v>6.618499322574528</v>
+        <v>7.278536590574541</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.31383726712016</v>
+        <v>19.45442572125514</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>23.15094750955027</v>
+        <v>18.01333529006359</v>
       </c>
       <c r="H12">
-        <v>12.8810801589676</v>
+        <v>7.436776524692193</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.220754258365025</v>
+        <v>12.97034614144796</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.85714854001564</v>
+        <v>18.22268284156851</v>
       </c>
       <c r="N12">
-        <v>17.55874691530119</v>
+        <v>10.90469795170897</v>
       </c>
       <c r="O12">
-        <v>18.85491789417624</v>
+        <v>11.7635414906013</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.157260117295996</v>
+        <v>15.04651205086462</v>
       </c>
       <c r="C13">
-        <v>6.614872622222457</v>
+        <v>7.268446540563304</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.29852844321136</v>
+        <v>19.39747598826888</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>23.15370741625164</v>
+        <v>17.99498914052199</v>
       </c>
       <c r="H13">
-        <v>12.88333853202536</v>
+        <v>7.440511481586216</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.207677383629004</v>
+        <v>12.9421211892987</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.844872684842</v>
+        <v>18.17492317537624</v>
       </c>
       <c r="N13">
-        <v>17.56162128534424</v>
+        <v>10.91493752960565</v>
       </c>
       <c r="O13">
-        <v>18.85850350549914</v>
+        <v>11.76452458209289</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.102099558211908</v>
+        <v>14.92171953075105</v>
       </c>
       <c r="C14">
-        <v>6.603027024081765</v>
+        <v>7.235453654750816</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.24859786958286</v>
+        <v>19.21100102518567</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>23.16291720608758</v>
+        <v>17.93593234975586</v>
       </c>
       <c r="H14">
-        <v>12.89075158819713</v>
+        <v>7.452845681158128</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.16486641314939</v>
+        <v>12.84965618638537</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.80483062763156</v>
+        <v>18.0184519606921</v>
       </c>
       <c r="N14">
-        <v>17.57103575917326</v>
+        <v>10.94838976542106</v>
       </c>
       <c r="O14">
-        <v>18.87029771383859</v>
+        <v>11.76813158148794</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.068156495350562</v>
+        <v>14.84478896932805</v>
       </c>
       <c r="C15">
-        <v>6.595757460500973</v>
+        <v>7.215178095347756</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.21801134103823</v>
+        <v>19.09620206842018</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>23.16871903411689</v>
+        <v>17.90035119791131</v>
       </c>
       <c r="H15">
-        <v>12.89532919367638</v>
+        <v>7.460517812294682</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.138517642129159</v>
+        <v>12.79269830439532</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.78029865754109</v>
+        <v>17.92205717236343</v>
       </c>
       <c r="N15">
-        <v>17.5768335558595</v>
+        <v>10.96892559380955</v>
       </c>
       <c r="O15">
-        <v>18.87759939656906</v>
+        <v>11.77064632651038</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.871300270159296</v>
+        <v>14.3963809347574</v>
       </c>
       <c r="C16">
-        <v>6.553893207190447</v>
+        <v>7.097986259287955</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.0427491576952</v>
+        <v>18.4294125591095</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>23.20442222616485</v>
+        <v>17.70545302644531</v>
       </c>
       <c r="H16">
-        <v>12.92212718460548</v>
+        <v>7.506236794401978</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.985618169011587</v>
+        <v>12.46139721252064</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.63967830276206</v>
+        <v>17.36116099282331</v>
       </c>
       <c r="N16">
-        <v>17.6105366760536</v>
+        <v>11.08731279228311</v>
       </c>
       <c r="O16">
-        <v>18.92062736431184</v>
+        <v>11.78962558648821</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.748494526842808</v>
+        <v>14.11454370543629</v>
       </c>
       <c r="C17">
-        <v>6.528034291996988</v>
+        <v>7.025220238935631</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.93530915135564</v>
+        <v>18.01232418472886</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>23.22850938135281</v>
+        <v>17.5938249340924</v>
       </c>
       <c r="H17">
-        <v>12.9390716693254</v>
+        <v>7.53580447380658</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.890145264685076</v>
+        <v>12.25379938422505</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.55342258820091</v>
+        <v>17.0094446086762</v>
       </c>
       <c r="N17">
-        <v>17.63164000044285</v>
+        <v>11.16057836927036</v>
       </c>
       <c r="O17">
-        <v>18.9480797044258</v>
+        <v>11.80522415005583</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.677130441362833</v>
+        <v>13.94995056326795</v>
       </c>
       <c r="C18">
-        <v>6.513098707031316</v>
+        <v>6.983054944746109</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.87356619486967</v>
+        <v>17.76944579988878</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>23.24316379313257</v>
+        <v>17.53249388480231</v>
       </c>
       <c r="H18">
-        <v>12.94900323845792</v>
+        <v>7.553352975899613</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.834627364170302</v>
+        <v>12.13280123777824</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.50383191827554</v>
+        <v>16.80432829017493</v>
       </c>
       <c r="N18">
-        <v>17.64393550264051</v>
+        <v>11.20295755084811</v>
       </c>
       <c r="O18">
-        <v>18.96425715313171</v>
+        <v>11.81560203852501</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.652844546117949</v>
+        <v>13.89379435294685</v>
       </c>
       <c r="C19">
-        <v>6.508031342295988</v>
+        <v>6.96872572069919</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.85267272612537</v>
+        <v>17.68669700831083</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>23.24826268819889</v>
+        <v>17.5122176861306</v>
       </c>
       <c r="H19">
-        <v>12.95239776968259</v>
+        <v>7.559386126225598</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.815727213606277</v>
+        <v>12.0915604624364</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.48704671251097</v>
+        <v>16.73439390327013</v>
       </c>
       <c r="N19">
-        <v>17.64812561588347</v>
+        <v>11.21734779641361</v>
       </c>
       <c r="O19">
-        <v>18.96980107918301</v>
+        <v>11.81935281937092</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.761643385055553</v>
+        <v>14.1448031140466</v>
       </c>
       <c r="C20">
-        <v>6.530793517616853</v>
+        <v>7.032998815617948</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.9467413384412</v>
+        <v>18.05703179160417</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>23.22586239256458</v>
+        <v>17.60540944467732</v>
       </c>
       <c r="H20">
-        <v>12.93724869729217</v>
+        <v>7.532600481747734</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.900371323064892</v>
+        <v>12.2760636139564</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.56260284625519</v>
+        <v>17.04717675302831</v>
       </c>
       <c r="N20">
-        <v>17.62937722919309</v>
+        <v>11.15275450225534</v>
       </c>
       <c r="O20">
-        <v>18.94511723034582</v>
+        <v>11.80341707320876</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.118334084335538</v>
+        <v>14.95847651518021</v>
       </c>
       <c r="C21">
-        <v>6.60650925226993</v>
+        <v>7.245158357801664</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.26326436840625</v>
+        <v>19.26589345593317</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>23.16017859221405</v>
+        <v>17.95315502307877</v>
       </c>
       <c r="H21">
-        <v>12.8885665053314</v>
+        <v>7.449198328140608</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.177467306721237</v>
+        <v>12.87688219634571</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.81659309862577</v>
+        <v>18.06452621165213</v>
       </c>
       <c r="N21">
-        <v>17.56826400802815</v>
+        <v>10.93855460052894</v>
       </c>
       <c r="O21">
-        <v>18.86681733817177</v>
+        <v>11.76700821390757</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.344539959792975</v>
+        <v>15.46824200639617</v>
       </c>
       <c r="C22">
-        <v>6.655383664330976</v>
+        <v>7.380864270544462</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.47008084136701</v>
+        <v>20.03002391455111</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>23.12442998740133</v>
+        <v>18.20685354554136</v>
       </c>
       <c r="H22">
-        <v>12.8584013026026</v>
+        <v>7.399884216992144</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.352962619729976</v>
+        <v>13.25522922012633</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.98241118208318</v>
+        <v>18.70468715270874</v>
       </c>
       <c r="N22">
-        <v>17.52971843241022</v>
+        <v>10.80060388391393</v>
       </c>
       <c r="O22">
-        <v>18.8191062188032</v>
+        <v>11.75675104470955</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.224460648155791</v>
+        <v>15.1981777238208</v>
       </c>
       <c r="C23">
-        <v>6.629356986199491</v>
+        <v>7.308713351347189</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.35972852470926</v>
+        <v>19.6245344029108</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>23.14285024704692</v>
+        <v>18.06899643315644</v>
       </c>
       <c r="H23">
-        <v>12.87434997305971</v>
+        <v>7.42571018098672</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.259820135305837</v>
+        <v>13.05461376914877</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.8939449227826</v>
+        <v>18.36526578709566</v>
       </c>
       <c r="N23">
-        <v>17.55016355668071</v>
+        <v>10.87404812703225</v>
       </c>
       <c r="O23">
-        <v>18.84425320210813</v>
+        <v>11.76093696510923</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.755701153094979</v>
+        <v>14.13113081427855</v>
       </c>
       <c r="C24">
-        <v>6.529546285863123</v>
+        <v>7.029483150526579</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.94157276054442</v>
+        <v>18.03682910969931</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>23.22705658498479</v>
+        <v>17.60016323442009</v>
       </c>
       <c r="H24">
-        <v>12.93807227122275</v>
+        <v>7.534047298493723</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.895750079546826</v>
+        <v>12.2660030852527</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.55845245087987</v>
+        <v>17.03012711804747</v>
       </c>
       <c r="N24">
-        <v>17.6303997205107</v>
+        <v>11.15629086852674</v>
       </c>
       <c r="O24">
-        <v>18.9464553354256</v>
+        <v>11.80422967183205</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.222510274468741</v>
+        <v>12.88499438126858</v>
       </c>
       <c r="C25">
-        <v>6.419539924368712</v>
+        <v>6.716485120012358</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.49291166708775</v>
+        <v>16.22988125689837</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>23.34843811001003</v>
+        <v>17.20360660489628</v>
       </c>
       <c r="H25">
-        <v>13.01390180475591</v>
+        <v>7.67144680693958</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.480099658334831</v>
+        <v>11.35460339769697</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.19761506146762</v>
+        <v>15.48205911280419</v>
       </c>
       <c r="N25">
-        <v>17.72297037026</v>
+        <v>11.46991349340565</v>
       </c>
       <c r="O25">
-        <v>19.07150883027865</v>
+        <v>11.90410968651927</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.88502579474011</v>
+        <v>20.99828823665366</v>
       </c>
       <c r="C2">
-        <v>6.476953912808675</v>
+        <v>14.04074609816653</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.97696985817941</v>
+        <v>8.504069522598497</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>28.78311619233039</v>
       </c>
       <c r="G2">
-        <v>16.99937027946324</v>
+        <v>33.52387220505948</v>
       </c>
       <c r="H2">
-        <v>7.788536419823355</v>
+        <v>2.824417386476989</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.272280170120462</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.28048662535003</v>
       </c>
       <c r="K2">
-        <v>10.63244385883109</v>
+        <v>17.79508776086136</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.766809111514064</v>
       </c>
       <c r="M2">
-        <v>14.24767244444713</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.70922522743024</v>
+        <v>7.653198591818056</v>
       </c>
       <c r="O2">
-        <v>12.01809203133046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.43245812387056</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.15579993374986</v>
+        <v>19.59823883198052</v>
       </c>
       <c r="C3">
-        <v>6.309614257306976</v>
+        <v>13.25717783568613</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.09170306825323</v>
+        <v>8.370659965644563</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.10925319750451</v>
       </c>
       <c r="G3">
-        <v>16.91184286279142</v>
+        <v>32.54593717430302</v>
       </c>
       <c r="H3">
-        <v>7.877045525851055</v>
+        <v>3.075760416810617</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.48325684776903</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.20194317407216</v>
       </c>
       <c r="K3">
-        <v>10.11209270592451</v>
+        <v>17.78201869353055</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.718115462327643</v>
       </c>
       <c r="M3">
-        <v>13.35150363206251</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.87688891687992</v>
+        <v>7.427338333154351</v>
       </c>
       <c r="O3">
-        <v>12.11801965342065</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.7654813188065</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.68267384911177</v>
+        <v>18.68606571479518</v>
       </c>
       <c r="C4">
-        <v>6.204647657626347</v>
+        <v>12.75505627759109</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.53148253188724</v>
+        <v>8.286938115870653</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>27.69500163944397</v>
       </c>
       <c r="G4">
-        <v>16.88171547931397</v>
+        <v>31.94380682731801</v>
       </c>
       <c r="H4">
-        <v>7.935674789338155</v>
+        <v>3.235293297530005</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.617709980154688</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.15704642296114</v>
       </c>
       <c r="K4">
-        <v>9.777782127218178</v>
+        <v>17.77841436298976</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.687054550683546</v>
       </c>
       <c r="M4">
-        <v>12.77173039038404</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>11.98261642444517</v>
+        <v>7.286291450154328</v>
       </c>
       <c r="O4">
-        <v>12.18975732321181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.33953513397369</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.48350787104579</v>
+        <v>18.30041095012472</v>
       </c>
       <c r="C5">
-        <v>6.161356203985283</v>
+        <v>12.55178817832415</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.29922855772483</v>
+        <v>8.252169364994428</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>27.51271972705749</v>
       </c>
       <c r="G5">
-        <v>16.87513732812604</v>
+        <v>31.66823527719044</v>
       </c>
       <c r="H5">
-        <v>7.960611845081661</v>
+        <v>3.301997722715361</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.676399400363485</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.13401387728074</v>
       </c>
       <c r="K5">
-        <v>9.637908004019295</v>
+        <v>17.76709412751553</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.674457623384624</v>
       </c>
       <c r="M5">
-        <v>12.52804073301533</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.02641158798172</v>
+        <v>7.230683730633834</v>
       </c>
       <c r="O5">
-        <v>12.22148633246653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.16391918368636</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.45005294988604</v>
+        <v>18.23476620614453</v>
       </c>
       <c r="C6">
-        <v>6.154137749196002</v>
+        <v>12.52577770365836</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.26043160684489</v>
+        <v>8.246150997058264</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>27.46591858535079</v>
       </c>
       <c r="G6">
-        <v>16.87438194179949</v>
+        <v>31.58572869178462</v>
       </c>
       <c r="H6">
-        <v>7.964814852170853</v>
+        <v>3.313593375983741</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.689608526456794</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.12344804808006</v>
       </c>
       <c r="K6">
-        <v>9.614464998860731</v>
+        <v>17.75194633574828</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.672786894800438</v>
       </c>
       <c r="M6">
-        <v>12.48712779466284</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.03372696188151</v>
+        <v>7.224374511301018</v>
       </c>
       <c r="O6">
-        <v>12.22690234283158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.13688376200313</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.6800135592403</v>
+        <v>18.67877196934898</v>
       </c>
       <c r="C7">
-        <v>6.20406584928387</v>
+        <v>12.7739277398301</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.5283659617677</v>
+        <v>8.285889221003471</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>27.64775352192877</v>
       </c>
       <c r="G7">
-        <v>16.88160401657716</v>
+        <v>31.8407082643336</v>
       </c>
       <c r="H7">
-        <v>7.936006908212471</v>
+        <v>3.237363711594945</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.627490159218675</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.138250573195</v>
       </c>
       <c r="K7">
-        <v>9.775910348604668</v>
+        <v>17.74190111207613</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.688118972488611</v>
       </c>
       <c r="M7">
-        <v>12.76847397557042</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>11.98320417077769</v>
+        <v>7.293529175171265</v>
       </c>
       <c r="O7">
-        <v>12.19017527705685</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.3434966392168</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.63886360743552</v>
+        <v>20.52376617947122</v>
       </c>
       <c r="C8">
-        <v>6.419739718629305</v>
+        <v>13.80176614822034</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.6753104971855</v>
+        <v>8.457697551461713</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>28.49357153941339</v>
       </c>
       <c r="G8">
-        <v>16.96415101770915</v>
+        <v>33.06045118948849</v>
       </c>
       <c r="H8">
-        <v>7.818145073939597</v>
+        <v>2.91148210319471</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.355611254733323</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.22857678346227</v>
       </c>
       <c r="K8">
-        <v>10.45614696993823</v>
+        <v>17.74187000030758</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.752056984634978</v>
       </c>
       <c r="M8">
-        <v>13.94479457363982</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.76646507772029</v>
+        <v>7.58602745158187</v>
       </c>
       <c r="O8">
-        <v>12.05032159561594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.21376892218671</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.3175342423203</v>
+        <v>23.73154642392646</v>
       </c>
       <c r="C9">
-        <v>6.823407197601143</v>
+        <v>15.61410538102415</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.84092391876977</v>
+        <v>8.782188667129324</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>30.21754614695092</v>
       </c>
       <c r="G9">
-        <v>17.32309891658199</v>
+        <v>35.59728241789706</v>
       </c>
       <c r="H9">
-        <v>7.622579881124568</v>
+        <v>2.31064096893339</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.845768614682656</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.46550391453477</v>
       </c>
       <c r="K9">
-        <v>11.66964467081227</v>
+        <v>17.84373755014546</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.865691648815119</v>
       </c>
       <c r="M9">
-        <v>16.01811285867133</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.36299841867758</v>
+        <v>8.12519865576102</v>
       </c>
       <c r="O9">
-        <v>11.86383476500502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.77424601023032</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.42820383137063</v>
+        <v>25.84981474895355</v>
       </c>
       <c r="C10">
-        <v>7.106246437186889</v>
+        <v>16.89498871524905</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.47660337476061</v>
+        <v>8.98682901474052</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>31.18813218472287</v>
       </c>
       <c r="G10">
-        <v>17.71858319454894</v>
+        <v>37.02475560276545</v>
       </c>
       <c r="H10">
-        <v>7.502937558102521</v>
+        <v>1.92329771416978</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.505604651819415</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.5747015062104</v>
       </c>
       <c r="K10">
-        <v>12.48486910957399</v>
+        <v>17.78533401562917</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.958390804383418</v>
       </c>
       <c r="M10">
-        <v>17.40091353878657</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.07898474511344</v>
+        <v>8.440234443477687</v>
       </c>
       <c r="O10">
-        <v>11.78803963606013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.78811121004691</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.90703722161456</v>
+        <v>26.84620809091602</v>
       </c>
       <c r="C11">
-        <v>7.231580274956581</v>
+        <v>17.86063787058556</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.18908227249726</v>
+        <v>8.928847303298934</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>29.3282808219326</v>
       </c>
       <c r="G11">
-        <v>17.92909304740697</v>
+        <v>34.39289804351963</v>
       </c>
       <c r="H11">
-        <v>7.45430591799323</v>
+        <v>2.847933199299343</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.579630695153619</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.9637179258371</v>
       </c>
       <c r="K11">
-        <v>12.83878309065177</v>
+        <v>16.50543996999839</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.166080895484831</v>
       </c>
       <c r="M11">
-        <v>18.00005108224759</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.95231414569332</v>
+        <v>8.00152500009154</v>
       </c>
       <c r="O11">
-        <v>11.76859445921831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.83515681183332</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.08458169272879</v>
+        <v>27.26185299343421</v>
       </c>
       <c r="C12">
-        <v>7.278536590574541</v>
+        <v>18.39628787625449</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.45442572125514</v>
+        <v>8.949336626969979</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>27.60063887037253</v>
       </c>
       <c r="G12">
-        <v>18.01333529006359</v>
+        <v>31.96752024804209</v>
       </c>
       <c r="H12">
-        <v>7.436776524692193</v>
+        <v>4.20338885001867</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.602104214248502</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.44985471541125</v>
       </c>
       <c r="K12">
-        <v>12.97034614144796</v>
+        <v>15.52007678168776</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.368949823292794</v>
       </c>
       <c r="M12">
-        <v>18.22268284156851</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.90469795170897</v>
+        <v>7.565448976607798</v>
       </c>
       <c r="O12">
-        <v>11.7635414906013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.65065006749857</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.04651205086462</v>
+        <v>27.26747276934043</v>
       </c>
       <c r="C13">
-        <v>7.268446540563304</v>
+        <v>18.67403027107417</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.39747598826888</v>
+        <v>9.025057682766926</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>25.78693172237042</v>
       </c>
       <c r="G13">
-        <v>17.99498914052199</v>
+        <v>29.36643656694773</v>
       </c>
       <c r="H13">
-        <v>7.440511481586216</v>
+        <v>5.621938824326635</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.562131530992835</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.950835762698794</v>
       </c>
       <c r="K13">
-        <v>12.9421211892987</v>
+        <v>14.65814843103797</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.576503076715151</v>
       </c>
       <c r="M13">
-        <v>18.17492317537624</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.91493752960565</v>
+        <v>7.112940154447811</v>
       </c>
       <c r="O13">
-        <v>11.76452458209289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.27969503581378</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.92171953075105</v>
+        <v>27.08596413916966</v>
       </c>
       <c r="C14">
-        <v>7.235453654750816</v>
+        <v>18.76166158677294</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.21100102518567</v>
+        <v>9.114330415441172</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>24.466731255269</v>
       </c>
       <c r="G14">
-        <v>17.93593234975586</v>
+        <v>27.42546069496638</v>
       </c>
       <c r="H14">
-        <v>7.452845681158128</v>
+        <v>6.6318181527108</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.507517074357666</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.606800547344172</v>
       </c>
       <c r="K14">
-        <v>12.84965618638537</v>
+        <v>14.121391212505</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.728215039950504</v>
       </c>
       <c r="M14">
-        <v>18.0184519606921</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10.94838976542106</v>
+        <v>6.793692535225537</v>
       </c>
       <c r="O14">
-        <v>11.76813158148794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.93222960316968</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.84478896932805</v>
+        <v>26.95248784745111</v>
       </c>
       <c r="C15">
-        <v>7.215178095347756</v>
+        <v>18.73458418617288</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.09620206842018</v>
+        <v>9.132142095370984</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>24.11492127942232</v>
       </c>
       <c r="G15">
-        <v>17.90035119791131</v>
+        <v>26.8849882942954</v>
       </c>
       <c r="H15">
-        <v>7.460517812294682</v>
+        <v>6.868664028336288</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.528335902940698</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.521244931720148</v>
       </c>
       <c r="K15">
-        <v>12.79269830439532</v>
+        <v>14.00584926559857</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.761653182797575</v>
       </c>
       <c r="M15">
-        <v>17.92205717236343</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10.96892559380955</v>
+        <v>6.713092338326749</v>
       </c>
       <c r="O15">
-        <v>11.77064632651038</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.80954599617709</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.3963809347574</v>
+        <v>26.09101413383338</v>
       </c>
       <c r="C16">
-        <v>7.097986259287955</v>
+        <v>18.18521874741387</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.4294125591095</v>
+        <v>9.020715495103916</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>23.99288896635658</v>
       </c>
       <c r="G16">
-        <v>17.70545302644531</v>
+        <v>26.62187147983101</v>
       </c>
       <c r="H16">
-        <v>7.506236794401978</v>
+        <v>6.688019256731449</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.671505675842357</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.561603635383916</v>
       </c>
       <c r="K16">
-        <v>12.46139721252064</v>
+        <v>14.19951896754513</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.677575170281388</v>
       </c>
       <c r="M16">
-        <v>17.36116099282331</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.08731279228311</v>
+        <v>6.662496200646141</v>
       </c>
       <c r="O16">
-        <v>11.78962558648821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.44637118466524</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.11454370543629</v>
+        <v>25.51564527340921</v>
       </c>
       <c r="C17">
-        <v>7.025220238935631</v>
+        <v>17.70603017886522</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>18.01232418472886</v>
+        <v>8.878536454240429</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>24.60867207112278</v>
       </c>
       <c r="G17">
-        <v>17.5938249340924</v>
+        <v>27.47971895100625</v>
       </c>
       <c r="H17">
-        <v>7.53580447380658</v>
+        <v>5.987402691721657</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.751251906473734</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.774041105222851</v>
       </c>
       <c r="K17">
-        <v>12.25379938422505</v>
+        <v>14.61926921281536</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.528459427897777</v>
       </c>
       <c r="M17">
-        <v>17.0094446086762</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.16057836927036</v>
+        <v>6.79381881733983</v>
       </c>
       <c r="O17">
-        <v>11.80522415005583</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.35657184240141</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.94995056326795</v>
+        <v>25.13567253267014</v>
       </c>
       <c r="C18">
-        <v>6.983054944746109</v>
+        <v>17.22546337237131</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.76944579988878</v>
+        <v>8.746703512498296</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>25.96835369905455</v>
       </c>
       <c r="G18">
-        <v>17.53249388480231</v>
+        <v>29.46505655617739</v>
       </c>
       <c r="H18">
-        <v>7.553352975899613</v>
+        <v>4.793717855266079</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.772081651726283</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.17511311074174</v>
       </c>
       <c r="K18">
-        <v>12.13280123777824</v>
+        <v>15.33648804604708</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.32219534626342</v>
       </c>
       <c r="M18">
-        <v>16.80432829017493</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.20295755084811</v>
+        <v>7.104670923966674</v>
       </c>
       <c r="O18">
-        <v>11.81560203852501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.48890438110233</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.89379435294685</v>
+        <v>24.94489416544638</v>
       </c>
       <c r="C19">
-        <v>6.96872572069919</v>
+        <v>16.82574357726874</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.68669700831083</v>
+        <v>8.711181400152096</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>27.76528895578976</v>
       </c>
       <c r="G19">
-        <v>17.5122176861306</v>
+        <v>32.03879153589019</v>
       </c>
       <c r="H19">
-        <v>7.559386126225598</v>
+        <v>3.410503369166161</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.761489745662417</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.67620802222427</v>
       </c>
       <c r="K19">
-        <v>12.0915604624364</v>
+        <v>16.23523836264885</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.124232928504473</v>
       </c>
       <c r="M19">
-        <v>16.73439390327013</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.21734779641361</v>
+        <v>7.563545692617877</v>
       </c>
       <c r="O19">
-        <v>11.81935281937092</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.7939384042631</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.1448031140466</v>
+        <v>25.30533813296882</v>
       </c>
       <c r="C20">
-        <v>7.032998815617948</v>
+        <v>16.62237491622191</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.05703179160417</v>
+        <v>8.930411822295623</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>30.7985592844295</v>
       </c>
       <c r="G20">
-        <v>17.60540944467732</v>
+        <v>36.36524878078634</v>
       </c>
       <c r="H20">
-        <v>7.532600481747734</v>
+        <v>2.025913732845946</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.626891322084436</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.48705280101261</v>
       </c>
       <c r="K20">
-        <v>12.2760636139564</v>
+        <v>17.68320729294761</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.940256724790849</v>
       </c>
       <c r="M20">
-        <v>17.04717675302831</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.15275450225534</v>
+        <v>8.376999128322288</v>
       </c>
       <c r="O20">
-        <v>11.80341707320876</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.54122510286236</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.95847651518021</v>
+        <v>26.83912938049587</v>
       </c>
       <c r="C21">
-        <v>7.245158357801664</v>
+        <v>17.49049803642358</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.26589345593317</v>
+        <v>9.127905696672249</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>31.96956059621836</v>
       </c>
       <c r="G21">
-        <v>17.95315502307877</v>
+        <v>38.08429168506179</v>
       </c>
       <c r="H21">
-        <v>7.449198328140608</v>
+        <v>1.688851307080448</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.653674217520814</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.70404389317073</v>
       </c>
       <c r="K21">
-        <v>12.87688219634571</v>
+        <v>17.89176983345374</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.986765221545119</v>
       </c>
       <c r="M21">
-        <v>18.06452621165213</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10.93855460052894</v>
+        <v>8.715988325515976</v>
       </c>
       <c r="O21">
-        <v>11.76700821390757</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>16.35803235059272</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.46824200639617</v>
+        <v>27.80514316998858</v>
       </c>
       <c r="C22">
-        <v>7.380864270544462</v>
+        <v>18.04139343810574</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.03002391455111</v>
+        <v>9.242991955111247</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>32.64475106069504</v>
       </c>
       <c r="G22">
-        <v>18.20685354554136</v>
+        <v>39.11590642625569</v>
       </c>
       <c r="H22">
-        <v>7.399884216992144</v>
+        <v>1.633912253080143</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.814836460149081</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.8335970376034</v>
       </c>
       <c r="K22">
-        <v>13.25522922012633</v>
+        <v>18.00654690178207</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.021188104857238</v>
       </c>
       <c r="M22">
-        <v>18.70468715270874</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.80060388391393</v>
+        <v>8.889925548558461</v>
       </c>
       <c r="O22">
-        <v>11.75675104470955</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.84490934595564</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.1981777238208</v>
+        <v>27.29547322189297</v>
       </c>
       <c r="C23">
-        <v>7.308713351347189</v>
+        <v>17.72963170418255</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.6245344029108</v>
+        <v>9.182204211380576</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>32.33001293119207</v>
       </c>
       <c r="G23">
-        <v>18.06899643315644</v>
+        <v>38.66327119499387</v>
       </c>
       <c r="H23">
-        <v>7.42571018098672</v>
+        <v>1.592573867121469</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.724160114342697</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.78432568184426</v>
       </c>
       <c r="K23">
-        <v>13.05461376914877</v>
+        <v>17.98580645649968</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.000923749969652</v>
       </c>
       <c r="M23">
-        <v>18.36526578709566</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10.87404812703225</v>
+        <v>8.789437807976675</v>
       </c>
       <c r="O23">
-        <v>11.76093696510923</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>16.58110342166514</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.13113081427855</v>
+        <v>25.2743928542199</v>
       </c>
       <c r="C24">
-        <v>7.029483150526579</v>
+        <v>16.54123025843653</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.03682910969931</v>
+        <v>8.949656435570549</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>31.05862476187239</v>
       </c>
       <c r="G24">
-        <v>17.60016323442009</v>
+        <v>36.78540376448755</v>
       </c>
       <c r="H24">
-        <v>7.534047298493723</v>
+        <v>2.00729148186802</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.606278473905063</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.57397399461255</v>
       </c>
       <c r="K24">
-        <v>12.2660030852527</v>
+        <v>17.85587096759963</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.925194630268934</v>
       </c>
       <c r="M24">
-        <v>17.03012711804747</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.15629086852674</v>
+        <v>8.414353174384766</v>
       </c>
       <c r="O24">
-        <v>11.80422967183205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.55584169735992</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.88499438126858</v>
+        <v>22.90428263756307</v>
       </c>
       <c r="C25">
-        <v>6.716485120012358</v>
+        <v>15.17557407276634</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.22988125689837</v>
+        <v>8.694752536986861</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>29.67859845709228</v>
       </c>
       <c r="G25">
-        <v>17.20360660489628</v>
+        <v>34.75134055503403</v>
       </c>
       <c r="H25">
-        <v>7.67144680693958</v>
+        <v>2.4709138974262</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.99686379799433</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.36611651950497</v>
       </c>
       <c r="K25">
-        <v>11.35460339769697</v>
+        <v>17.74740551068042</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.838680789782851</v>
       </c>
       <c r="M25">
-        <v>15.48205911280419</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.46991349340565</v>
+        <v>7.995062451098354</v>
       </c>
       <c r="O25">
-        <v>11.90410968651927</v>
+        <v>14.37702383527706</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.99828823665366</v>
+        <v>21.02077869890618</v>
       </c>
       <c r="C2">
-        <v>14.04074609816653</v>
+        <v>14.36713226793471</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.504069522598497</v>
+        <v>8.552286661416115</v>
       </c>
       <c r="F2">
-        <v>28.78311619233039</v>
+        <v>27.51035082391738</v>
       </c>
       <c r="G2">
-        <v>33.52387220505948</v>
+        <v>30.31510979638646</v>
       </c>
       <c r="H2">
-        <v>2.824417386476989</v>
+        <v>2.711747683549938</v>
       </c>
       <c r="I2">
-        <v>3.272280170120462</v>
+        <v>3.116194140729489</v>
       </c>
       <c r="J2">
-        <v>11.28048662535003</v>
+        <v>11.02682123367103</v>
       </c>
       <c r="K2">
-        <v>17.79508776086136</v>
+        <v>16.53406091681628</v>
       </c>
       <c r="L2">
-        <v>5.766809111514064</v>
+        <v>13.50542461541038</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.98652482333123</v>
       </c>
       <c r="N2">
-        <v>7.653198591818056</v>
+        <v>5.740349770294749</v>
       </c>
       <c r="O2">
-        <v>13.43245812387056</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.98477261334792</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.57697179275757</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.59823883198052</v>
+        <v>19.63456752404889</v>
       </c>
       <c r="C3">
-        <v>13.25717783568613</v>
+        <v>13.50575501204059</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.370659965644563</v>
+        <v>8.443094568699665</v>
       </c>
       <c r="F3">
-        <v>28.10925319750451</v>
+        <v>26.97228997567153</v>
       </c>
       <c r="G3">
-        <v>32.54593717430302</v>
+        <v>29.64905523367379</v>
       </c>
       <c r="H3">
-        <v>3.075760416810617</v>
+        <v>2.94238327013824</v>
       </c>
       <c r="I3">
-        <v>3.48325684776903</v>
+        <v>3.299598696103626</v>
       </c>
       <c r="J3">
-        <v>11.20194317407216</v>
+        <v>10.95614683152405</v>
       </c>
       <c r="K3">
-        <v>17.78201869353055</v>
+        <v>16.621003158961</v>
       </c>
       <c r="L3">
-        <v>5.718115462327643</v>
+        <v>13.63919841266112</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.00169864632406</v>
       </c>
       <c r="N3">
-        <v>7.427338333154351</v>
+        <v>5.672044097030398</v>
       </c>
       <c r="O3">
-        <v>12.7654813188065</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.746953543766291</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.88648893848315</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.68606571479518</v>
+        <v>18.73116462665291</v>
       </c>
       <c r="C4">
-        <v>12.75505627759109</v>
+        <v>12.95250960458168</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.286938115870653</v>
+        <v>8.374657447726566</v>
       </c>
       <c r="F4">
-        <v>27.69500163944397</v>
+        <v>26.64224633982208</v>
       </c>
       <c r="G4">
-        <v>31.94380682731801</v>
+        <v>29.24555934812596</v>
       </c>
       <c r="H4">
-        <v>3.235293297530005</v>
+        <v>3.088874115544498</v>
       </c>
       <c r="I4">
-        <v>3.617709980154688</v>
+        <v>3.416847536340147</v>
       </c>
       <c r="J4">
-        <v>11.15704642296114</v>
+        <v>10.9130078568121</v>
       </c>
       <c r="K4">
-        <v>17.77841436298976</v>
+        <v>16.67728462199697</v>
       </c>
       <c r="L4">
-        <v>5.687054550683546</v>
+        <v>13.72024476646013</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.03085172845905</v>
       </c>
       <c r="N4">
-        <v>7.286291450154328</v>
+        <v>5.629095290911141</v>
       </c>
       <c r="O4">
-        <v>12.33953513397369</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.598837534340923</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.44481233385405</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.30041095012472</v>
+        <v>18.34920550024193</v>
       </c>
       <c r="C5">
-        <v>12.55178817832415</v>
+        <v>12.72739714234094</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.252169364994428</v>
+        <v>8.346262035162178</v>
       </c>
       <c r="F5">
-        <v>27.51271972705749</v>
+        <v>26.4956976607499</v>
       </c>
       <c r="G5">
-        <v>31.66823527719044</v>
+        <v>29.05519669811584</v>
       </c>
       <c r="H5">
-        <v>3.301997722715361</v>
+        <v>3.150145591856349</v>
       </c>
       <c r="I5">
-        <v>3.676399400363485</v>
+        <v>3.468885737422119</v>
       </c>
       <c r="J5">
-        <v>11.13401387728074</v>
+        <v>10.89050641408444</v>
       </c>
       <c r="K5">
-        <v>17.76709412751553</v>
+        <v>16.69151074353538</v>
       </c>
       <c r="L5">
-        <v>5.674457623384624</v>
+        <v>13.74463887975066</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.04182358233593</v>
       </c>
       <c r="N5">
-        <v>7.230683730633834</v>
+        <v>5.611864233887809</v>
       </c>
       <c r="O5">
-        <v>12.16391918368636</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.540226994064864</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.26230679654663</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.23476620614453</v>
+        <v>18.28422749897805</v>
       </c>
       <c r="C6">
-        <v>12.52577770365836</v>
+        <v>12.69748280802928</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.246150997058264</v>
+        <v>8.341352584698141</v>
       </c>
       <c r="F6">
-        <v>27.46591858535079</v>
+        <v>26.45640794714001</v>
       </c>
       <c r="G6">
-        <v>31.58572869178462</v>
+        <v>28.99023083216564</v>
       </c>
       <c r="H6">
-        <v>3.313593375983741</v>
+        <v>3.160794851586406</v>
       </c>
       <c r="I6">
-        <v>3.689608526456794</v>
+        <v>3.481559592448363</v>
       </c>
       <c r="J6">
-        <v>11.12344804808006</v>
+        <v>10.88068389199823</v>
       </c>
       <c r="K6">
-        <v>17.75194633574828</v>
+        <v>16.68244611956691</v>
       </c>
       <c r="L6">
-        <v>5.672786894800438</v>
+        <v>13.73847299694085</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.03684351093721</v>
       </c>
       <c r="N6">
-        <v>7.224374511301018</v>
+        <v>5.609632675084781</v>
       </c>
       <c r="O6">
-        <v>12.13688376200313</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.53317404319924</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.23391594770094</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.67877196934898</v>
+        <v>18.7233189715894</v>
       </c>
       <c r="C7">
-        <v>12.7739277398301</v>
+        <v>12.95692477770766</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.285889221003471</v>
+        <v>8.375155437547239</v>
       </c>
       <c r="F7">
-        <v>27.64775352192877</v>
+        <v>26.57958917748636</v>
       </c>
       <c r="G7">
-        <v>31.8407082643336</v>
+        <v>29.20888098630331</v>
       </c>
       <c r="H7">
-        <v>3.237363711594945</v>
+        <v>3.09141510887226</v>
       </c>
       <c r="I7">
-        <v>3.627490159218675</v>
+        <v>3.428776854860286</v>
       </c>
       <c r="J7">
-        <v>11.138250573195</v>
+        <v>10.84577902956954</v>
       </c>
       <c r="K7">
-        <v>17.74190111207613</v>
+        <v>16.63180115116378</v>
       </c>
       <c r="L7">
-        <v>5.688118972488611</v>
+        <v>13.68061732454845</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.00188090616528</v>
       </c>
       <c r="N7">
-        <v>7.293529175171265</v>
+        <v>5.631654597064448</v>
       </c>
       <c r="O7">
-        <v>12.3434966392168</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.607549474433473</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.45001083328177</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.52376617947122</v>
+        <v>20.54890147017351</v>
       </c>
       <c r="C8">
-        <v>13.80176614822034</v>
+        <v>14.05922925456427</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.457697551461713</v>
+        <v>8.518822811164977</v>
       </c>
       <c r="F8">
-        <v>28.49357153941339</v>
+        <v>27.20812106682631</v>
       </c>
       <c r="G8">
-        <v>33.06045118948849</v>
+        <v>30.15230958970828</v>
       </c>
       <c r="H8">
-        <v>2.91148210319471</v>
+        <v>2.793602595374594</v>
       </c>
       <c r="I8">
-        <v>3.355611254733323</v>
+        <v>3.194270312655021</v>
       </c>
       <c r="J8">
-        <v>11.22857678346227</v>
+        <v>10.81694888841521</v>
       </c>
       <c r="K8">
-        <v>17.74187000030758</v>
+        <v>16.47542343855881</v>
       </c>
       <c r="L8">
-        <v>5.752056984634978</v>
+        <v>13.47938798832081</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.92603728267259</v>
       </c>
       <c r="N8">
-        <v>7.58602745158187</v>
+        <v>5.723160487458625</v>
       </c>
       <c r="O8">
-        <v>13.21376892218671</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.919633165649868</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.35546561665301</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.73154642392646</v>
+        <v>23.72264925389373</v>
       </c>
       <c r="C9">
-        <v>15.61410538102415</v>
+        <v>16.04142799849614</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.782188667129324</v>
+        <v>8.785932295262439</v>
       </c>
       <c r="F9">
-        <v>30.21754614695092</v>
+        <v>28.58252099621575</v>
       </c>
       <c r="G9">
-        <v>35.59728241789706</v>
+        <v>31.988432721627</v>
       </c>
       <c r="H9">
-        <v>2.31064096893339</v>
+        <v>2.243245371436701</v>
       </c>
       <c r="I9">
-        <v>2.845768614682656</v>
+        <v>2.750661862104806</v>
       </c>
       <c r="J9">
-        <v>11.46550391453477</v>
+        <v>10.97304911794332</v>
       </c>
       <c r="K9">
-        <v>17.84373755014546</v>
+        <v>16.30121931490017</v>
       </c>
       <c r="L9">
-        <v>5.865691648815119</v>
+        <v>13.16609896564914</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.01121564656068</v>
       </c>
       <c r="N9">
-        <v>8.12519865576102</v>
+        <v>5.887169536657067</v>
       </c>
       <c r="O9">
-        <v>14.77424601023032</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.491777554400336</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.96858186372901</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.84981474895355</v>
+        <v>25.8141265885634</v>
       </c>
       <c r="C10">
-        <v>16.89498871524905</v>
+        <v>17.35856437776701</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.98682901474052</v>
+        <v>8.956255193450472</v>
       </c>
       <c r="F10">
-        <v>31.18813218472287</v>
+        <v>29.23545990213418</v>
       </c>
       <c r="G10">
-        <v>37.02475560276545</v>
+        <v>33.31045088303213</v>
       </c>
       <c r="H10">
-        <v>1.92329771416978</v>
+        <v>1.894036663543866</v>
       </c>
       <c r="I10">
-        <v>2.505604651819415</v>
+        <v>2.520358013692309</v>
       </c>
       <c r="J10">
-        <v>11.5747015062104</v>
+        <v>10.75275724181437</v>
       </c>
       <c r="K10">
-        <v>17.78533401562917</v>
+        <v>15.98989420002729</v>
       </c>
       <c r="L10">
-        <v>5.958390804383418</v>
+        <v>12.78773184279308</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.00930891382377</v>
       </c>
       <c r="N10">
-        <v>8.440234443477687</v>
+        <v>6.029638894846013</v>
       </c>
       <c r="O10">
-        <v>15.78811121004691</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.835902876630431</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.0190336175029</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.84620809091602</v>
+        <v>26.80303673472218</v>
       </c>
       <c r="C11">
-        <v>17.86063787058556</v>
+        <v>18.14562945137907</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.928847303298934</v>
+        <v>8.867778541474083</v>
       </c>
       <c r="F11">
-        <v>29.3282808219326</v>
+        <v>27.33222907626439</v>
       </c>
       <c r="G11">
-        <v>34.39289804351963</v>
+        <v>31.6672544968952</v>
       </c>
       <c r="H11">
-        <v>2.847933199299343</v>
+        <v>2.838137678912915</v>
       </c>
       <c r="I11">
-        <v>2.579630695153619</v>
+        <v>2.616843673282025</v>
       </c>
       <c r="J11">
-        <v>10.9637179258371</v>
+        <v>9.730880187180533</v>
       </c>
       <c r="K11">
-        <v>16.50543996999839</v>
+        <v>14.7836076793555</v>
       </c>
       <c r="L11">
-        <v>6.166080895484831</v>
+        <v>11.89233058462888</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.12341348985377</v>
       </c>
       <c r="N11">
-        <v>8.00152500009154</v>
+        <v>6.312687262817739</v>
       </c>
       <c r="O11">
-        <v>15.83515681183332</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.373014178580478</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.06452096364178</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.26185299343421</v>
+        <v>27.21968767021595</v>
       </c>
       <c r="C12">
-        <v>18.39628787625449</v>
+        <v>18.55677411827375</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.949336626969979</v>
+        <v>8.854165678793757</v>
       </c>
       <c r="F12">
-        <v>27.60063887037253</v>
+        <v>25.69762006414224</v>
       </c>
       <c r="G12">
-        <v>31.96752024804209</v>
+        <v>29.90297513390387</v>
       </c>
       <c r="H12">
-        <v>4.20338885001867</v>
+        <v>4.19818593569995</v>
       </c>
       <c r="I12">
-        <v>2.602104214248502</v>
+        <v>2.634468394073626</v>
       </c>
       <c r="J12">
-        <v>10.44985471541125</v>
+        <v>9.141636997281564</v>
       </c>
       <c r="K12">
-        <v>15.52007678168776</v>
+        <v>13.96985407238426</v>
       </c>
       <c r="L12">
-        <v>6.368949823292794</v>
+        <v>11.33687531466267</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.461587646708592</v>
       </c>
       <c r="N12">
-        <v>7.565448976607798</v>
+        <v>6.555677905017173</v>
       </c>
       <c r="O12">
-        <v>15.65065006749857</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.902325139335682</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.86705347594657</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.26747276934043</v>
+        <v>27.23449301725214</v>
       </c>
       <c r="C13">
-        <v>18.67403027107417</v>
+        <v>18.76870010919846</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.025057682766926</v>
+        <v>8.907828347637274</v>
       </c>
       <c r="F13">
-        <v>25.78693172237042</v>
+        <v>24.13628946761629</v>
       </c>
       <c r="G13">
-        <v>29.36643656694773</v>
+        <v>27.63729004563528</v>
       </c>
       <c r="H13">
-        <v>5.621938824326635</v>
+        <v>5.615824735380421</v>
       </c>
       <c r="I13">
-        <v>2.562131530992835</v>
+        <v>2.600921328776741</v>
       </c>
       <c r="J13">
-        <v>9.950835762698794</v>
+        <v>8.87435628398511</v>
       </c>
       <c r="K13">
-        <v>14.65814843103797</v>
+        <v>13.38710143727915</v>
       </c>
       <c r="L13">
-        <v>6.576503076715151</v>
+        <v>10.96783011985265</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.931021243184837</v>
       </c>
       <c r="N13">
-        <v>7.112940154447811</v>
+        <v>6.768866629183012</v>
       </c>
       <c r="O13">
-        <v>15.27969503581378</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.40132627553294</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.46900307182084</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.08596413916966</v>
+        <v>27.06310379390455</v>
       </c>
       <c r="C14">
-        <v>18.76166158677294</v>
+        <v>18.83495386317855</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.114330415441172</v>
+        <v>8.995713292436992</v>
       </c>
       <c r="F14">
-        <v>24.466731255269</v>
+        <v>23.06179591022233</v>
       </c>
       <c r="G14">
-        <v>27.42546069496638</v>
+        <v>25.79447863892437</v>
       </c>
       <c r="H14">
-        <v>6.6318181527108</v>
+        <v>6.623950933024892</v>
       </c>
       <c r="I14">
-        <v>2.507517074357666</v>
+        <v>2.556180076230143</v>
       </c>
       <c r="J14">
-        <v>9.606800547344172</v>
+        <v>8.805557231391074</v>
       </c>
       <c r="K14">
-        <v>14.121391212505</v>
+        <v>13.07968078191884</v>
       </c>
       <c r="L14">
-        <v>6.728215039950504</v>
+        <v>10.78171620859091</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.624109726051433</v>
       </c>
       <c r="N14">
-        <v>6.793692535225537</v>
+        <v>6.905990182255136</v>
       </c>
       <c r="O14">
-        <v>14.93222960316968</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.043453633909068</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.09573747679375</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.95248784745111</v>
+        <v>26.93381813233502</v>
       </c>
       <c r="C15">
-        <v>18.73458418617288</v>
+        <v>18.81347995914138</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.132142095370984</v>
+        <v>9.019451728124071</v>
       </c>
       <c r="F15">
-        <v>24.11492127942232</v>
+        <v>22.79970831243278</v>
       </c>
       <c r="G15">
-        <v>26.8849882942954</v>
+        <v>25.22302561665974</v>
       </c>
       <c r="H15">
-        <v>6.868664028336288</v>
+        <v>6.859749473726548</v>
       </c>
       <c r="I15">
-        <v>2.528335902940698</v>
+        <v>2.536349659115558</v>
       </c>
       <c r="J15">
-        <v>9.521244931720148</v>
+        <v>8.834671863493197</v>
       </c>
       <c r="K15">
-        <v>14.00584926559857</v>
+        <v>13.03544105180916</v>
       </c>
       <c r="L15">
-        <v>6.761653182797575</v>
+        <v>10.75698483896692</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.56867631648319</v>
       </c>
       <c r="N15">
-        <v>6.713092338326749</v>
+        <v>6.929351319835718</v>
       </c>
       <c r="O15">
-        <v>14.80954599617709</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.951588441860615</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.96370493837169</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.09101413383338</v>
+        <v>26.08731796309607</v>
       </c>
       <c r="C16">
-        <v>18.18521874741387</v>
+        <v>18.35725032678996</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.020715495103916</v>
+        <v>8.954423154852648</v>
       </c>
       <c r="F16">
-        <v>23.99288896635658</v>
+        <v>22.91581546230838</v>
       </c>
       <c r="G16">
-        <v>26.62187147983101</v>
+        <v>24.50193882593695</v>
       </c>
       <c r="H16">
-        <v>6.688019256731449</v>
+        <v>6.671895695469204</v>
       </c>
       <c r="I16">
-        <v>2.671505675842357</v>
+        <v>2.610684643397284</v>
       </c>
       <c r="J16">
-        <v>9.561603635383916</v>
+        <v>9.279891645987606</v>
       </c>
       <c r="K16">
-        <v>14.19951896754513</v>
+        <v>13.35314978948498</v>
       </c>
       <c r="L16">
-        <v>6.677575170281388</v>
+        <v>10.97549676884849</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.77803672148981</v>
       </c>
       <c r="N16">
-        <v>6.662496200646141</v>
+        <v>6.796589266384023</v>
       </c>
       <c r="O16">
-        <v>14.44637118466524</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.886237701665913</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.57611121122366</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.51564527340921</v>
+        <v>25.51711814769924</v>
       </c>
       <c r="C17">
-        <v>17.70603017886522</v>
+        <v>17.94466021639731</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.878536454240429</v>
+        <v>8.836500070871562</v>
       </c>
       <c r="F17">
-        <v>24.60867207112278</v>
+        <v>23.56121798524974</v>
       </c>
       <c r="G17">
-        <v>27.47971895100625</v>
+        <v>25.0322444534295</v>
       </c>
       <c r="H17">
-        <v>5.987402691721657</v>
+        <v>5.964966200094496</v>
       </c>
       <c r="I17">
-        <v>2.751251906473734</v>
+        <v>2.678070945609816</v>
       </c>
       <c r="J17">
-        <v>9.774041105222851</v>
+        <v>9.629096361604491</v>
       </c>
       <c r="K17">
-        <v>14.61926921281536</v>
+        <v>13.74913656072322</v>
       </c>
       <c r="L17">
-        <v>6.528459427897777</v>
+        <v>11.2519478449758</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.078777850700021</v>
       </c>
       <c r="N17">
-        <v>6.79381881733983</v>
+        <v>6.625537896223581</v>
       </c>
       <c r="O17">
-        <v>14.35657184240141</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.027231550305137</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.48384134732078</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.13567253267014</v>
+        <v>25.13545524354197</v>
       </c>
       <c r="C18">
-        <v>17.22546337237131</v>
+        <v>17.53795799665623</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.746703512498296</v>
+        <v>8.716252299305683</v>
       </c>
       <c r="F18">
-        <v>25.96835369905455</v>
+        <v>24.80825767907864</v>
       </c>
       <c r="G18">
-        <v>29.46505655617739</v>
+        <v>26.63533287326701</v>
       </c>
       <c r="H18">
-        <v>4.793717855266079</v>
+        <v>4.763906673280665</v>
       </c>
       <c r="I18">
-        <v>2.772081651726283</v>
+        <v>2.692794297864316</v>
       </c>
       <c r="J18">
-        <v>10.17511311074174</v>
+        <v>10.0247762255722</v>
       </c>
       <c r="K18">
-        <v>15.33648804604708</v>
+        <v>14.32778915583559</v>
       </c>
       <c r="L18">
-        <v>6.32219534626342</v>
+        <v>11.66438285936451</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.53878918536086</v>
       </c>
       <c r="N18">
-        <v>7.104670923966674</v>
+        <v>6.407984750585893</v>
       </c>
       <c r="O18">
-        <v>14.48890438110233</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.36695349059663</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.6301847831198</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.94489416544638</v>
+        <v>24.93825934460859</v>
       </c>
       <c r="C19">
-        <v>16.82574357726874</v>
+        <v>17.21768435688463</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.711181400152096</v>
+        <v>8.685640555056407</v>
       </c>
       <c r="F19">
-        <v>27.76528895578976</v>
+        <v>26.40701355135742</v>
       </c>
       <c r="G19">
-        <v>32.03879153589019</v>
+        <v>28.77513027994253</v>
       </c>
       <c r="H19">
-        <v>3.410503369166161</v>
+        <v>3.371076930110804</v>
       </c>
       <c r="I19">
-        <v>2.761489745662417</v>
+        <v>2.685600596826619</v>
       </c>
       <c r="J19">
-        <v>10.67620802222427</v>
+        <v>10.44167011710268</v>
       </c>
       <c r="K19">
-        <v>16.23523836264885</v>
+        <v>15.01406869664148</v>
       </c>
       <c r="L19">
-        <v>6.124232928504473</v>
+        <v>12.15813931766166</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.09231321306718</v>
       </c>
       <c r="N19">
-        <v>7.563545692617877</v>
+        <v>6.198513521277535</v>
       </c>
       <c r="O19">
-        <v>14.7939384042631</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.866990270337854</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.95919269152607</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.30533813296882</v>
+        <v>25.27923244518143</v>
       </c>
       <c r="C20">
-        <v>16.62237491622191</v>
+        <v>17.11315310659367</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.930411822295623</v>
+        <v>8.904667340202256</v>
       </c>
       <c r="F20">
-        <v>30.7985592844295</v>
+        <v>29.00581391140361</v>
       </c>
       <c r="G20">
-        <v>36.36524878078634</v>
+        <v>32.51766660537456</v>
       </c>
       <c r="H20">
-        <v>2.025913732845946</v>
+        <v>1.98449907010582</v>
       </c>
       <c r="I20">
-        <v>2.626891322084436</v>
+        <v>2.573257478200046</v>
       </c>
       <c r="J20">
-        <v>11.48705280101261</v>
+        <v>10.9289970124368</v>
       </c>
       <c r="K20">
-        <v>17.68320729294761</v>
+        <v>16.02329384813914</v>
       </c>
       <c r="L20">
-        <v>5.940256724790849</v>
+        <v>12.85257041339358</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.96610831150336</v>
       </c>
       <c r="N20">
-        <v>8.376999128322288</v>
+        <v>5.996097641616026</v>
       </c>
       <c r="O20">
-        <v>15.54122510286236</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.756294689910197</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.75644209937708</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.83912938049587</v>
+        <v>26.78012827337949</v>
       </c>
       <c r="C21">
-        <v>17.49049803642358</v>
+        <v>17.82546510348468</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.127905696672249</v>
+        <v>9.107044685768775</v>
       </c>
       <c r="F21">
-        <v>31.96956059621836</v>
+        <v>29.55540592614907</v>
       </c>
       <c r="G21">
-        <v>38.08429168506179</v>
+        <v>35.03527919994534</v>
       </c>
       <c r="H21">
-        <v>1.688851307080448</v>
+        <v>1.686425494608763</v>
       </c>
       <c r="I21">
-        <v>2.653674217520814</v>
+        <v>2.67859265163648</v>
       </c>
       <c r="J21">
-        <v>11.70404389317073</v>
+        <v>10.01719275796227</v>
       </c>
       <c r="K21">
-        <v>17.89176983345374</v>
+        <v>15.71917383298792</v>
       </c>
       <c r="L21">
-        <v>5.986765221545119</v>
+        <v>12.52065850437299</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.92883040602527</v>
       </c>
       <c r="N21">
-        <v>8.715988325515976</v>
+        <v>6.098527212640822</v>
       </c>
       <c r="O21">
-        <v>16.35803235059272</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.163663654650419</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.63047019879416</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.80514316998858</v>
+        <v>27.72474101814063</v>
       </c>
       <c r="C22">
-        <v>18.04139343810574</v>
+        <v>18.26185734776965</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.242991955111247</v>
+        <v>9.230719705431378</v>
       </c>
       <c r="F22">
-        <v>32.64475106069504</v>
+        <v>29.81811152498669</v>
       </c>
       <c r="G22">
-        <v>39.11590642625569</v>
+        <v>36.68496157788007</v>
       </c>
       <c r="H22">
-        <v>1.633912253080143</v>
+        <v>1.611931149321179</v>
       </c>
       <c r="I22">
-        <v>2.814836460149081</v>
+        <v>2.808724190433056</v>
       </c>
       <c r="J22">
-        <v>11.8335970376034</v>
+        <v>9.395152846889289</v>
       </c>
       <c r="K22">
-        <v>18.00654690178207</v>
+        <v>15.485760489968</v>
       </c>
       <c r="L22">
-        <v>6.021188104857238</v>
+        <v>12.28321386191586</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.88552978473705</v>
       </c>
       <c r="N22">
-        <v>8.889925548558461</v>
+        <v>6.174217836983573</v>
       </c>
       <c r="O22">
-        <v>16.84490934595564</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.382011365147115</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>17.15295445667956</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.29547322189297</v>
+        <v>27.22768293674964</v>
       </c>
       <c r="C23">
-        <v>17.72963170418255</v>
+        <v>18.03821766886646</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.182204211380576</v>
+        <v>9.160267413132763</v>
       </c>
       <c r="F23">
-        <v>32.33001293119207</v>
+        <v>29.76450413353206</v>
       </c>
       <c r="G23">
-        <v>38.66327119499387</v>
+        <v>35.75931886866226</v>
       </c>
       <c r="H23">
-        <v>1.592573867121469</v>
+        <v>1.600880710521251</v>
       </c>
       <c r="I23">
-        <v>2.724160114342697</v>
+        <v>2.734097552086766</v>
       </c>
       <c r="J23">
-        <v>11.78432568184426</v>
+        <v>9.846583601346936</v>
       </c>
       <c r="K23">
-        <v>17.98580645649968</v>
+        <v>15.6795921550874</v>
       </c>
       <c r="L23">
-        <v>6.000923749969652</v>
+        <v>12.4560630305768</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.96631568507884</v>
       </c>
       <c r="N23">
-        <v>8.789437807976675</v>
+        <v>6.127096731447064</v>
       </c>
       <c r="O23">
-        <v>16.58110342166514</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.253335203188026</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.86730984574183</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.2743928542199</v>
+        <v>25.24754058239415</v>
       </c>
       <c r="C24">
-        <v>16.54123025843653</v>
+        <v>17.04153285940796</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.949656435570549</v>
+        <v>8.924757844451744</v>
       </c>
       <c r="F24">
-        <v>31.05862476187239</v>
+        <v>29.24140853472369</v>
       </c>
       <c r="G24">
-        <v>36.78540376448755</v>
+        <v>32.87324689329145</v>
       </c>
       <c r="H24">
-        <v>2.00729148186802</v>
+        <v>1.96606099607235</v>
       </c>
       <c r="I24">
-        <v>2.606278473905063</v>
+        <v>2.549124248697316</v>
       </c>
       <c r="J24">
-        <v>11.57397399461255</v>
+        <v>11.00872763123998</v>
       </c>
       <c r="K24">
-        <v>17.85587096759963</v>
+        <v>16.16410240392698</v>
       </c>
       <c r="L24">
-        <v>5.925194630268934</v>
+        <v>12.95521332460501</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.07712540925379</v>
       </c>
       <c r="N24">
-        <v>8.414353174384766</v>
+        <v>5.975669107669582</v>
       </c>
       <c r="O24">
-        <v>15.55584169735992</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.798745695196981</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.7739474902177</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.90428263756307</v>
+        <v>22.90563065507293</v>
       </c>
       <c r="C25">
-        <v>15.17557407276634</v>
+        <v>15.57528807226962</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.694752536986861</v>
+        <v>8.712035242728474</v>
       </c>
       <c r="F25">
-        <v>29.67859845709228</v>
+        <v>28.17058914317327</v>
       </c>
       <c r="G25">
-        <v>34.75134055503403</v>
+        <v>31.26248211238961</v>
       </c>
       <c r="H25">
-        <v>2.4709138974262</v>
+        <v>2.389088053212276</v>
       </c>
       <c r="I25">
-        <v>2.99686379799433</v>
+        <v>2.886087377938447</v>
       </c>
       <c r="J25">
-        <v>11.36611651950497</v>
+        <v>10.97155081133519</v>
       </c>
       <c r="K25">
-        <v>17.74740551068042</v>
+        <v>16.31109555206572</v>
       </c>
       <c r="L25">
-        <v>5.838680789782851</v>
+        <v>13.2259694213496</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.9440971071783</v>
       </c>
       <c r="N25">
-        <v>7.995062451098354</v>
+        <v>5.846018787428648</v>
       </c>
       <c r="O25">
-        <v>14.37702383527706</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.34874980016178</v>
       </c>
       <c r="Q25">
+        <v>14.55522294688203</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
